--- a/resources/Moodys.com/ratings_bg_clean.xlsx
+++ b/resources/Moodys.com/ratings_bg_clean.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\103763\Projects\HELLO_CREDIT\resources\Moodys.com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thabang Ndhlovu\Projects\HELLO_CREDIT\resources\Moodys.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{0E8FA950-9E73-4ADE-A70A-D6E0FAEA9BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB657E82-0E4C-4EA7-9CFA-7F7666311B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="main" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="SpreadsheetBuilder_1" hidden="1">[1]Sheet1!$A$1:$G$101</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3560" uniqueCount="363">
   <si>
     <t>RTG_MOODY_LONG_TERM</t>
   </si>
@@ -1137,7 +1138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1167,9 +1168,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1661,27 +1661,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D9" sqref="A1:I123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>227</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>3.4347558811265166E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>5.8639723854447823E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>8.2802462342546068E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>2.6498708874389543E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>1.9371702068449181E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>9.1567031910155805E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>2.6983058181176967E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>2.4975347907574275E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>2.6281919543336141E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>7.8836179723595912E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>4.1553185519016544E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>2.4335675294362424E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>1.5089431759651717E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>1.9710053398839245E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>3.6238217396244998E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>9.4408263562328898E-7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>8.7533745039891642E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>5.3146381400193121E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>1.411030930653645E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>7.6795673824496813E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>4.2277088892261894E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>3.9129578424723643E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>9.5655895450463824E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>1.7805823482319738E-10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>7.9999683988862813E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>3.2257347792885582E-8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>1.9548698215743343E-9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>8.8075630849682174E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>3.4754647075807554E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>1.4755900118267329E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>2.4411466606810706E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>2.0323700600233252E-7</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>3.5425699185243076E-7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>4.1351150500703593E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>1.650044076476731E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>7.9484369032256641E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>4.0854642415766307E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>2.0348559818583745E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>2.372693293861694E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>1.1052733293337447E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>5.6007977944361187E-6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>2.3263153196784181E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>5.3302638934227264E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>4.9328069161358457E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>8.3652386424515335E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>2.6564674240892039E-5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>4.8896599230818794E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>2.7395542114094784E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>4.9637398367077257E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>3.6814325383904833E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>4.4990123195665088E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>1.1524774909116298E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>7.8315059896350014E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>3.4379364706182969E-6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>1.9798906958357065E-10</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>8.301672495074075E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>3.4743563138928124E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>8.7111276289020267E-6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>1.8389856304423802E-10</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>2.5897801068319737E-5</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>8.4054576040992757E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>9.9669437514204873E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1.114443183081848E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>3.2690952438851895E-5</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>4.9749331894166637E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>5.1339735334299252E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>6.7565490031377129E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>9.7274521770884803E-11</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>9.3237853914218682E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>2.769993434625917E-8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>1.2397337293446054E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>2.2180492483689918E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>2.6923727695129518E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>5.575444927974349E-5</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>1.1100884651049636E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>2.5247414159323966E-8</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>1.2486827021596092E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>2.9230625172571578E-6</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>4.8860225327906903E-6</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>6.616929226765933E-14</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>1.0227745420837708E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>4.1811086354615723E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>4.7666142761704222E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>1.3192457910637945E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>2.6854576069113012E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>1.218064926278295E-5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>1.5016040311411905E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>2.6003670176261151E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>1.118407291976764E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>2.7326565132934633E-7</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>1.6953748026171667E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>3.5230097042981967E-6</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>1.4031402706393692E-9</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>8.02536189168368E-5</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>1.730009553348677E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>1.4808811825565149E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>1.3288675272282724E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>1.0746844554305746E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>1.5565196248235047E-5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>1.7707805255451348E-7</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>2.5420064608816517E-8</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>5.6611621281885682E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>1.0426183640209641E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>4.7647149217909801E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>1.557409903091278E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>1.5938669564108388E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>2.097742692635296E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>1.6439751901547339E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>6.7279506561135349E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>5.2162375419051443E-7</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>1.0325665157407182E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>5.2792492147157866E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>7.863181201051006E-6</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>4.4552506699699901E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>1.0438706519295127E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>8.8044245367679963E-5</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>1.9784808595557646E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>9.3971965958949966E-5</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>3.4229741551761173E-5</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>4.7430920170343782E-6</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -5248,25 +5248,6459 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BEE8AD-5009-4732-8B13-1A65B804C059}">
+  <dimension ref="A1:I221"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" t="s">
+        <v>360</v>
+      </c>
+      <c r="I2">
+        <v>3.4347558811265166E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3">
+        <v>5.8639723854447823E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I4">
+        <v>8.2802462342546068E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" t="s">
+        <v>351</v>
+      </c>
+      <c r="I5">
+        <v>2.6498708874389543E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I6">
+        <v>1.9371702068449181E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I7">
+        <v>9.1567031910155805E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H8" t="s">
+        <v>355</v>
+      </c>
+      <c r="I8">
+        <v>2.6983058181176967E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9">
+        <v>2.4975347907574275E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H10" t="s">
+        <v>353</v>
+      </c>
+      <c r="I10">
+        <v>2.6281919543336141E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I11">
+        <v>7.8836179723595912E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H12" t="s">
+        <v>347</v>
+      </c>
+      <c r="I12">
+        <v>4.1553185519016544E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" t="s">
+        <v>238</v>
+      </c>
+      <c r="H13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I13">
+        <v>2.4335675294362424E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" t="s">
+        <v>346</v>
+      </c>
+      <c r="I14">
+        <v>1.5089431759651717E-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" t="s">
+        <v>238</v>
+      </c>
+      <c r="H15" t="s">
+        <v>355</v>
+      </c>
+      <c r="I15">
+        <v>1.9710053398839245E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" t="s">
+        <v>238</v>
+      </c>
+      <c r="E16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" t="s">
+        <v>238</v>
+      </c>
+      <c r="H16" t="s">
+        <v>360</v>
+      </c>
+      <c r="I16">
+        <v>3.6238217396244998E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" t="s">
+        <v>238</v>
+      </c>
+      <c r="H17" t="s">
+        <v>346</v>
+      </c>
+      <c r="I17">
+        <v>9.4408263562328898E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" t="s">
+        <v>238</v>
+      </c>
+      <c r="H18" t="s">
+        <v>348</v>
+      </c>
+      <c r="I18">
+        <v>8.7533745039891642E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19" t="s">
+        <v>306</v>
+      </c>
+      <c r="F19" t="s">
+        <v>234</v>
+      </c>
+      <c r="G19" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" t="s">
+        <v>346</v>
+      </c>
+      <c r="I19">
+        <v>5.3146381400193121E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" t="s">
+        <v>238</v>
+      </c>
+      <c r="F20" t="s">
+        <v>238</v>
+      </c>
+      <c r="G20" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" t="s">
+        <v>346</v>
+      </c>
+      <c r="I20">
+        <v>1.411030930653645E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" t="s">
+        <v>238</v>
+      </c>
+      <c r="G21" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" t="s">
+        <v>350</v>
+      </c>
+      <c r="I21">
+        <v>7.6795673824496813E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" t="s">
+        <v>312</v>
+      </c>
+      <c r="E22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" t="s">
+        <v>313</v>
+      </c>
+      <c r="H22" t="s">
+        <v>347</v>
+      </c>
+      <c r="I22">
+        <v>4.2277088892261894E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" t="s">
+        <v>238</v>
+      </c>
+      <c r="H23" t="s">
+        <v>359</v>
+      </c>
+      <c r="I23">
+        <v>3.9129578424723643E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" t="s">
+        <v>238</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>238</v>
+      </c>
+      <c r="H24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I24">
+        <v>9.5655895450463824E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25" t="s">
+        <v>346</v>
+      </c>
+      <c r="I25">
+        <v>1.7805823482319738E-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>315</v>
+      </c>
+      <c r="H26" t="s">
+        <v>347</v>
+      </c>
+      <c r="I26">
+        <v>7.9999683988862813E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" t="s">
+        <v>238</v>
+      </c>
+      <c r="E27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>238</v>
+      </c>
+      <c r="H27" t="s">
+        <v>346</v>
+      </c>
+      <c r="I27">
+        <v>3.2257347792885582E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" t="s">
+        <v>346</v>
+      </c>
+      <c r="I28">
+        <v>1.9548698215743343E-9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" t="s">
+        <v>238</v>
+      </c>
+      <c r="H29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I29">
+        <v>8.8075630849682174E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s">
+        <v>238</v>
+      </c>
+      <c r="H30" t="s">
+        <v>346</v>
+      </c>
+      <c r="I30">
+        <v>3.4754647075807554E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" t="s">
+        <v>238</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>238</v>
+      </c>
+      <c r="H31" t="s">
+        <v>349</v>
+      </c>
+      <c r="I31">
+        <v>1.4755900118267329E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" t="s">
+        <v>238</v>
+      </c>
+      <c r="H32" t="s">
+        <v>351</v>
+      </c>
+      <c r="I32">
+        <v>2.4411466606810706E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E33" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" t="s">
+        <v>346</v>
+      </c>
+      <c r="I33">
+        <v>2.0323700600233252E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" t="s">
+        <v>238</v>
+      </c>
+      <c r="F34" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" t="s">
+        <v>238</v>
+      </c>
+      <c r="H34" t="s">
+        <v>346</v>
+      </c>
+      <c r="I34">
+        <v>3.5425699185243076E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" t="s">
+        <v>238</v>
+      </c>
+      <c r="G35" t="s">
+        <v>238</v>
+      </c>
+      <c r="H35" t="s">
+        <v>359</v>
+      </c>
+      <c r="I35">
+        <v>4.1351150500703593E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" t="s">
+        <v>349</v>
+      </c>
+      <c r="I36">
+        <v>1.650044076476731E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E37" t="s">
+        <v>238</v>
+      </c>
+      <c r="F37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" t="s">
+        <v>238</v>
+      </c>
+      <c r="H37" t="s">
+        <v>348</v>
+      </c>
+      <c r="I37">
+        <v>7.9484369032256641E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>238</v>
+      </c>
+      <c r="C38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" t="s">
+        <v>351</v>
+      </c>
+      <c r="I38">
+        <v>4.0854642415766307E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" t="s">
+        <v>238</v>
+      </c>
+      <c r="D39" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" t="s">
+        <v>238</v>
+      </c>
+      <c r="H39" t="s">
+        <v>351</v>
+      </c>
+      <c r="I39">
+        <v>2.0348559818583745E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" t="s">
+        <v>317</v>
+      </c>
+      <c r="E40" t="s">
+        <v>238</v>
+      </c>
+      <c r="F40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" t="s">
+        <v>351</v>
+      </c>
+      <c r="I40">
+        <v>2.372693293861694E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" t="s">
+        <v>318</v>
+      </c>
+      <c r="F41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G41" t="s">
+        <v>319</v>
+      </c>
+      <c r="H41" t="s">
+        <v>357</v>
+      </c>
+      <c r="I41">
+        <v>1.1052733293337447E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" t="s">
+        <v>238</v>
+      </c>
+      <c r="G42" t="s">
+        <v>238</v>
+      </c>
+      <c r="H42" t="s">
+        <v>346</v>
+      </c>
+      <c r="I42">
+        <v>5.6007977944361187E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" t="s">
+        <v>308</v>
+      </c>
+      <c r="E43" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" t="s">
+        <v>320</v>
+      </c>
+      <c r="H43" t="s">
+        <v>353</v>
+      </c>
+      <c r="I43">
+        <v>2.3263153196784181E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" t="s">
+        <v>322</v>
+      </c>
+      <c r="E44" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" t="s">
+        <v>234</v>
+      </c>
+      <c r="G44" t="s">
+        <v>323</v>
+      </c>
+      <c r="H44" t="s">
+        <v>348</v>
+      </c>
+      <c r="I44">
+        <v>5.3302638934227264E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" t="s">
+        <v>238</v>
+      </c>
+      <c r="D45" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" t="s">
+        <v>238</v>
+      </c>
+      <c r="H45" t="s">
+        <v>347</v>
+      </c>
+      <c r="I45">
+        <v>4.9328069161358457E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" t="s">
+        <v>308</v>
+      </c>
+      <c r="E46" t="s">
+        <v>238</v>
+      </c>
+      <c r="F46" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46" t="s">
+        <v>348</v>
+      </c>
+      <c r="I46">
+        <v>8.3652386424515335E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" t="s">
+        <v>238</v>
+      </c>
+      <c r="F47" t="s">
+        <v>238</v>
+      </c>
+      <c r="G47" t="s">
+        <v>238</v>
+      </c>
+      <c r="H47" t="s">
+        <v>351</v>
+      </c>
+      <c r="I47">
+        <v>2.6564674240892039E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" t="s">
+        <v>238</v>
+      </c>
+      <c r="E48" t="s">
+        <v>238</v>
+      </c>
+      <c r="F48" t="s">
+        <v>238</v>
+      </c>
+      <c r="G48" t="s">
+        <v>238</v>
+      </c>
+      <c r="H48" t="s">
+        <v>360</v>
+      </c>
+      <c r="I48">
+        <v>4.8896599230818794E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49" t="s">
+        <v>238</v>
+      </c>
+      <c r="E49" t="s">
+        <v>238</v>
+      </c>
+      <c r="F49" t="s">
+        <v>238</v>
+      </c>
+      <c r="G49" t="s">
+        <v>238</v>
+      </c>
+      <c r="H49" t="s">
+        <v>353</v>
+      </c>
+      <c r="I49">
+        <v>2.7395542114094784E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" t="s">
+        <v>324</v>
+      </c>
+      <c r="E50" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50" t="s">
+        <v>238</v>
+      </c>
+      <c r="G50" t="s">
+        <v>238</v>
+      </c>
+      <c r="H50" t="s">
+        <v>359</v>
+      </c>
+      <c r="I50">
+        <v>4.9637398367077257E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" t="s">
+        <v>238</v>
+      </c>
+      <c r="G51" t="s">
+        <v>238</v>
+      </c>
+      <c r="H51" t="s">
+        <v>360</v>
+      </c>
+      <c r="I51">
+        <v>3.6814325383904833E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" t="s">
+        <v>238</v>
+      </c>
+      <c r="E52" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" t="s">
+        <v>238</v>
+      </c>
+      <c r="G52" t="s">
+        <v>238</v>
+      </c>
+      <c r="H52" t="s">
+        <v>360</v>
+      </c>
+      <c r="I52">
+        <v>4.4990123195665088E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" t="s">
+        <v>238</v>
+      </c>
+      <c r="H53" t="s">
+        <v>349</v>
+      </c>
+      <c r="I53">
+        <v>1.1524774909116298E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E54" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" t="s">
+        <v>238</v>
+      </c>
+      <c r="G54" t="s">
+        <v>238</v>
+      </c>
+      <c r="H54" t="s">
+        <v>348</v>
+      </c>
+      <c r="I54">
+        <v>7.8315059896350014E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" t="s">
+        <v>238</v>
+      </c>
+      <c r="G55" t="s">
+        <v>238</v>
+      </c>
+      <c r="H55" t="s">
+        <v>346</v>
+      </c>
+      <c r="I55">
+        <v>3.4379364706182969E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" t="s">
+        <v>238</v>
+      </c>
+      <c r="E56" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56" t="s">
+        <v>238</v>
+      </c>
+      <c r="H56" t="s">
+        <v>346</v>
+      </c>
+      <c r="I56">
+        <v>1.9798906958357065E-10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" t="s">
+        <v>238</v>
+      </c>
+      <c r="F57" t="s">
+        <v>238</v>
+      </c>
+      <c r="G57" t="s">
+        <v>238</v>
+      </c>
+      <c r="H57" t="s">
+        <v>350</v>
+      </c>
+      <c r="I57">
+        <v>8.301672495074075E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" t="s">
+        <v>238</v>
+      </c>
+      <c r="G58" t="s">
+        <v>238</v>
+      </c>
+      <c r="H58" t="s">
+        <v>351</v>
+      </c>
+      <c r="I58">
+        <v>3.4743563138928124E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" t="s">
+        <v>238</v>
+      </c>
+      <c r="F59" t="s">
+        <v>238</v>
+      </c>
+      <c r="G59" t="s">
+        <v>238</v>
+      </c>
+      <c r="H59" t="s">
+        <v>346</v>
+      </c>
+      <c r="I59">
+        <v>8.7111276289020267E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" t="s">
+        <v>238</v>
+      </c>
+      <c r="E60" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" t="s">
+        <v>238</v>
+      </c>
+      <c r="G60" t="s">
+        <v>238</v>
+      </c>
+      <c r="H60" t="s">
+        <v>346</v>
+      </c>
+      <c r="I60">
+        <v>1.8389856304423802E-10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" t="s">
+        <v>238</v>
+      </c>
+      <c r="F61" t="s">
+        <v>238</v>
+      </c>
+      <c r="G61" t="s">
+        <v>238</v>
+      </c>
+      <c r="H61" t="s">
+        <v>351</v>
+      </c>
+      <c r="I61">
+        <v>2.5897801068319737E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" t="s">
+        <v>238</v>
+      </c>
+      <c r="G62" t="s">
+        <v>238</v>
+      </c>
+      <c r="H62" t="s">
+        <v>357</v>
+      </c>
+      <c r="I62">
+        <v>8.4054576040992757E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" t="s">
+        <v>238</v>
+      </c>
+      <c r="E63" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" t="s">
+        <v>238</v>
+      </c>
+      <c r="G63" t="s">
+        <v>238</v>
+      </c>
+      <c r="H63" t="s">
+        <v>349</v>
+      </c>
+      <c r="I63">
+        <v>9.9669437514204873E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D64" t="s">
+        <v>238</v>
+      </c>
+      <c r="E64" t="s">
+        <v>238</v>
+      </c>
+      <c r="F64" t="s">
+        <v>238</v>
+      </c>
+      <c r="G64" t="s">
+        <v>238</v>
+      </c>
+      <c r="H64" t="s">
+        <v>349</v>
+      </c>
+      <c r="I64">
+        <v>1.114443183081848E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" t="s">
+        <v>325</v>
+      </c>
+      <c r="E65" t="s">
+        <v>306</v>
+      </c>
+      <c r="F65" t="s">
+        <v>234</v>
+      </c>
+      <c r="G65" t="s">
+        <v>326</v>
+      </c>
+      <c r="H65" t="s">
+        <v>351</v>
+      </c>
+      <c r="I65">
+        <v>3.2690952438851895E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66" t="s">
+        <v>238</v>
+      </c>
+      <c r="F66" t="s">
+        <v>238</v>
+      </c>
+      <c r="G66" t="s">
+        <v>238</v>
+      </c>
+      <c r="H66" t="s">
+        <v>347</v>
+      </c>
+      <c r="I66">
+        <v>4.9749331894166637E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" t="s">
+        <v>327</v>
+      </c>
+      <c r="E67" t="s">
+        <v>238</v>
+      </c>
+      <c r="F67" t="s">
+        <v>238</v>
+      </c>
+      <c r="G67" t="s">
+        <v>238</v>
+      </c>
+      <c r="H67" t="s">
+        <v>348</v>
+      </c>
+      <c r="I67">
+        <v>5.1339735334299252E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" t="s">
+        <v>238</v>
+      </c>
+      <c r="E68" t="s">
+        <v>238</v>
+      </c>
+      <c r="F68" t="s">
+        <v>238</v>
+      </c>
+      <c r="G68" t="s">
+        <v>238</v>
+      </c>
+      <c r="H68" t="s">
+        <v>350</v>
+      </c>
+      <c r="I68">
+        <v>6.7565490031377129E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" t="s">
+        <v>238</v>
+      </c>
+      <c r="F69" t="s">
+        <v>238</v>
+      </c>
+      <c r="G69" t="s">
+        <v>238</v>
+      </c>
+      <c r="H69" t="s">
+        <v>346</v>
+      </c>
+      <c r="I69">
+        <v>9.7274521770884803E-11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" t="s">
+        <v>308</v>
+      </c>
+      <c r="E70" t="s">
+        <v>259</v>
+      </c>
+      <c r="F70" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70" t="s">
+        <v>328</v>
+      </c>
+      <c r="H70" t="s">
+        <v>348</v>
+      </c>
+      <c r="I70">
+        <v>9.3237853914218682E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" t="s">
+        <v>238</v>
+      </c>
+      <c r="E71" t="s">
+        <v>238</v>
+      </c>
+      <c r="F71" t="s">
+        <v>238</v>
+      </c>
+      <c r="G71" t="s">
+        <v>238</v>
+      </c>
+      <c r="H71" t="s">
+        <v>346</v>
+      </c>
+      <c r="I71">
+        <v>2.769993434625917E-8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" t="s">
+        <v>238</v>
+      </c>
+      <c r="E72" t="s">
+        <v>246</v>
+      </c>
+      <c r="F72" t="s">
+        <v>238</v>
+      </c>
+      <c r="G72" t="s">
+        <v>238</v>
+      </c>
+      <c r="H72" t="s">
+        <v>357</v>
+      </c>
+      <c r="I72">
+        <v>1.2397337293446054E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" t="s">
+        <v>238</v>
+      </c>
+      <c r="C73" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" t="s">
+        <v>238</v>
+      </c>
+      <c r="F73" t="s">
+        <v>238</v>
+      </c>
+      <c r="G73" t="s">
+        <v>238</v>
+      </c>
+      <c r="H73" t="s">
+        <v>355</v>
+      </c>
+      <c r="I73">
+        <v>2.2180492483689918E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" t="s">
+        <v>238</v>
+      </c>
+      <c r="E74" t="s">
+        <v>246</v>
+      </c>
+      <c r="F74" t="s">
+        <v>238</v>
+      </c>
+      <c r="G74" t="s">
+        <v>238</v>
+      </c>
+      <c r="H74" t="s">
+        <v>355</v>
+      </c>
+      <c r="I74">
+        <v>2.6923727695129518E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" t="s">
+        <v>286</v>
+      </c>
+      <c r="F75" t="s">
+        <v>234</v>
+      </c>
+      <c r="G75" t="s">
+        <v>329</v>
+      </c>
+      <c r="H75" t="s">
+        <v>347</v>
+      </c>
+      <c r="I75">
+        <v>5.575444927974349E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" t="s">
+        <v>238</v>
+      </c>
+      <c r="E76" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" t="s">
+        <v>238</v>
+      </c>
+      <c r="G76" t="s">
+        <v>238</v>
+      </c>
+      <c r="H76" t="s">
+        <v>357</v>
+      </c>
+      <c r="I76">
+        <v>1.1100884651049636E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" t="s">
+        <v>238</v>
+      </c>
+      <c r="F77" t="s">
+        <v>238</v>
+      </c>
+      <c r="G77" t="s">
+        <v>238</v>
+      </c>
+      <c r="H77" t="s">
+        <v>346</v>
+      </c>
+      <c r="I77">
+        <v>2.5247414159323966E-8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>238</v>
+      </c>
+      <c r="C78" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" t="s">
+        <v>238</v>
+      </c>
+      <c r="F78" t="s">
+        <v>238</v>
+      </c>
+      <c r="G78" t="s">
+        <v>238</v>
+      </c>
+      <c r="H78" t="s">
+        <v>346</v>
+      </c>
+      <c r="I78">
+        <v>1.2486827021596092E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" t="s">
+        <v>238</v>
+      </c>
+      <c r="E79" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" t="s">
+        <v>238</v>
+      </c>
+      <c r="G79" t="s">
+        <v>238</v>
+      </c>
+      <c r="H79" t="s">
+        <v>346</v>
+      </c>
+      <c r="I79">
+        <v>2.9230625172571578E-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" t="s">
+        <v>238</v>
+      </c>
+      <c r="D80" t="s">
+        <v>238</v>
+      </c>
+      <c r="E80" t="s">
+        <v>238</v>
+      </c>
+      <c r="F80" t="s">
+        <v>238</v>
+      </c>
+      <c r="G80" t="s">
+        <v>238</v>
+      </c>
+      <c r="H80" t="s">
+        <v>346</v>
+      </c>
+      <c r="I80">
+        <v>4.8860225327906903E-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" t="s">
+        <v>238</v>
+      </c>
+      <c r="E81" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" t="s">
+        <v>238</v>
+      </c>
+      <c r="G81" t="s">
+        <v>238</v>
+      </c>
+      <c r="H81" t="s">
+        <v>346</v>
+      </c>
+      <c r="I81">
+        <v>6.616929226765933E-14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" t="s">
+        <v>238</v>
+      </c>
+      <c r="E82" t="s">
+        <v>238</v>
+      </c>
+      <c r="F82" t="s">
+        <v>238</v>
+      </c>
+      <c r="G82" t="s">
+        <v>238</v>
+      </c>
+      <c r="H82" t="s">
+        <v>349</v>
+      </c>
+      <c r="I82">
+        <v>1.0227745420837708E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" t="s">
+        <v>238</v>
+      </c>
+      <c r="E83" t="s">
+        <v>238</v>
+      </c>
+      <c r="F83" t="s">
+        <v>238</v>
+      </c>
+      <c r="G83" t="s">
+        <v>238</v>
+      </c>
+      <c r="H83" t="s">
+        <v>352</v>
+      </c>
+      <c r="I83">
+        <v>4.1811086354615723E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" t="s">
+        <v>238</v>
+      </c>
+      <c r="G84" t="s">
+        <v>238</v>
+      </c>
+      <c r="H84" t="s">
+        <v>360</v>
+      </c>
+      <c r="I84">
+        <v>4.7666142761704222E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85" t="s">
+        <v>330</v>
+      </c>
+      <c r="E85" t="s">
+        <v>238</v>
+      </c>
+      <c r="F85" t="s">
+        <v>238</v>
+      </c>
+      <c r="G85" t="s">
+        <v>238</v>
+      </c>
+      <c r="H85" t="s">
+        <v>357</v>
+      </c>
+      <c r="I85">
+        <v>1.3192457910637945E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" t="s">
+        <v>331</v>
+      </c>
+      <c r="E86" t="s">
+        <v>286</v>
+      </c>
+      <c r="F86" t="s">
+        <v>234</v>
+      </c>
+      <c r="G86" t="s">
+        <v>332</v>
+      </c>
+      <c r="H86" t="s">
+        <v>353</v>
+      </c>
+      <c r="I86">
+        <v>2.6854576069113012E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>238</v>
+      </c>
+      <c r="C87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" t="s">
+        <v>238</v>
+      </c>
+      <c r="E87" t="s">
+        <v>238</v>
+      </c>
+      <c r="F87" t="s">
+        <v>238</v>
+      </c>
+      <c r="G87" t="s">
+        <v>238</v>
+      </c>
+      <c r="H87" t="s">
+        <v>346</v>
+      </c>
+      <c r="I87">
+        <v>1.218064926278295E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" t="s">
+        <v>238</v>
+      </c>
+      <c r="E88" t="s">
+        <v>238</v>
+      </c>
+      <c r="F88" t="s">
+        <v>238</v>
+      </c>
+      <c r="G88" t="s">
+        <v>238</v>
+      </c>
+      <c r="H88" t="s">
+        <v>349</v>
+      </c>
+      <c r="I88">
+        <v>1.5016040311411905E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" t="s">
+        <v>238</v>
+      </c>
+      <c r="E89" t="s">
+        <v>238</v>
+      </c>
+      <c r="F89" t="s">
+        <v>238</v>
+      </c>
+      <c r="G89" t="s">
+        <v>238</v>
+      </c>
+      <c r="H89" t="s">
+        <v>355</v>
+      </c>
+      <c r="I89">
+        <v>2.6003670176261151E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" t="s">
+        <v>308</v>
+      </c>
+      <c r="E90" t="s">
+        <v>238</v>
+      </c>
+      <c r="F90" t="s">
+        <v>238</v>
+      </c>
+      <c r="G90" t="s">
+        <v>238</v>
+      </c>
+      <c r="H90" t="s">
+        <v>349</v>
+      </c>
+      <c r="I90">
+        <v>1.118407291976764E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" t="s">
+        <v>238</v>
+      </c>
+      <c r="D91" t="s">
+        <v>238</v>
+      </c>
+      <c r="E91" t="s">
+        <v>238</v>
+      </c>
+      <c r="F91" t="s">
+        <v>238</v>
+      </c>
+      <c r="G91" t="s">
+        <v>238</v>
+      </c>
+      <c r="H91" t="s">
+        <v>346</v>
+      </c>
+      <c r="I91">
+        <v>2.7326565132934633E-7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" t="s">
+        <v>238</v>
+      </c>
+      <c r="D92" t="s">
+        <v>238</v>
+      </c>
+      <c r="E92" t="s">
+        <v>238</v>
+      </c>
+      <c r="F92" t="s">
+        <v>238</v>
+      </c>
+      <c r="G92" t="s">
+        <v>238</v>
+      </c>
+      <c r="H92" t="s">
+        <v>353</v>
+      </c>
+      <c r="I92">
+        <v>1.6953748026171667E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" t="s">
+        <v>238</v>
+      </c>
+      <c r="C93" t="s">
+        <v>238</v>
+      </c>
+      <c r="D93" t="s">
+        <v>238</v>
+      </c>
+      <c r="E93" t="s">
+        <v>238</v>
+      </c>
+      <c r="F93" t="s">
+        <v>238</v>
+      </c>
+      <c r="G93" t="s">
+        <v>238</v>
+      </c>
+      <c r="H93" t="s">
+        <v>346</v>
+      </c>
+      <c r="I93">
+        <v>3.5230097042981967E-6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" t="s">
+        <v>238</v>
+      </c>
+      <c r="D94" t="s">
+        <v>238</v>
+      </c>
+      <c r="E94" t="s">
+        <v>238</v>
+      </c>
+      <c r="F94" t="s">
+        <v>238</v>
+      </c>
+      <c r="G94" t="s">
+        <v>238</v>
+      </c>
+      <c r="H94" t="s">
+        <v>346</v>
+      </c>
+      <c r="I94">
+        <v>1.4031402706393692E-9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>321</v>
+      </c>
+      <c r="C95" t="s">
+        <v>234</v>
+      </c>
+      <c r="D95" t="s">
+        <v>333</v>
+      </c>
+      <c r="E95" t="s">
+        <v>236</v>
+      </c>
+      <c r="F95" t="s">
+        <v>234</v>
+      </c>
+      <c r="G95" t="s">
+        <v>334</v>
+      </c>
+      <c r="H95" t="s">
+        <v>347</v>
+      </c>
+      <c r="I95">
+        <v>8.02536189168368E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" t="s">
+        <v>238</v>
+      </c>
+      <c r="E96" t="s">
+        <v>238</v>
+      </c>
+      <c r="F96" t="s">
+        <v>238</v>
+      </c>
+      <c r="G96" t="s">
+        <v>238</v>
+      </c>
+      <c r="H96" t="s">
+        <v>355</v>
+      </c>
+      <c r="I96">
+        <v>1.730009553348677E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" t="s">
+        <v>252</v>
+      </c>
+      <c r="C97" t="s">
+        <v>240</v>
+      </c>
+      <c r="D97" t="s">
+        <v>335</v>
+      </c>
+      <c r="E97" t="s">
+        <v>248</v>
+      </c>
+      <c r="F97" t="s">
+        <v>234</v>
+      </c>
+      <c r="G97" t="s">
+        <v>336</v>
+      </c>
+      <c r="H97" t="s">
+        <v>349</v>
+      </c>
+      <c r="I97">
+        <v>1.4808811825565149E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>238</v>
+      </c>
+      <c r="C98" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" t="s">
+        <v>238</v>
+      </c>
+      <c r="E98" t="s">
+        <v>238</v>
+      </c>
+      <c r="F98" t="s">
+        <v>238</v>
+      </c>
+      <c r="G98" t="s">
+        <v>238</v>
+      </c>
+      <c r="H98" t="s">
+        <v>357</v>
+      </c>
+      <c r="I98">
+        <v>1.3288675272282724E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" t="s">
+        <v>238</v>
+      </c>
+      <c r="C99" t="s">
+        <v>238</v>
+      </c>
+      <c r="D99" t="s">
+        <v>238</v>
+      </c>
+      <c r="E99" t="s">
+        <v>238</v>
+      </c>
+      <c r="F99" t="s">
+        <v>238</v>
+      </c>
+      <c r="G99" t="s">
+        <v>238</v>
+      </c>
+      <c r="H99" t="s">
+        <v>349</v>
+      </c>
+      <c r="I99">
+        <v>1.0746844554305746E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s">
+        <v>238</v>
+      </c>
+      <c r="C100" t="s">
+        <v>238</v>
+      </c>
+      <c r="D100" t="s">
+        <v>238</v>
+      </c>
+      <c r="E100" t="s">
+        <v>238</v>
+      </c>
+      <c r="F100" t="s">
+        <v>238</v>
+      </c>
+      <c r="G100" t="s">
+        <v>238</v>
+      </c>
+      <c r="H100" t="s">
+        <v>346</v>
+      </c>
+      <c r="I100">
+        <v>1.5565196248235047E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" t="s">
+        <v>238</v>
+      </c>
+      <c r="C101" t="s">
+        <v>238</v>
+      </c>
+      <c r="D101" t="s">
+        <v>238</v>
+      </c>
+      <c r="E101" t="s">
+        <v>238</v>
+      </c>
+      <c r="F101" t="s">
+        <v>238</v>
+      </c>
+      <c r="G101" t="s">
+        <v>238</v>
+      </c>
+      <c r="H101" t="s">
+        <v>346</v>
+      </c>
+      <c r="I101">
+        <v>1.7707805255451348E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" t="s">
+        <v>238</v>
+      </c>
+      <c r="D102" t="s">
+        <v>238</v>
+      </c>
+      <c r="E102" t="s">
+        <v>248</v>
+      </c>
+      <c r="F102" t="s">
+        <v>234</v>
+      </c>
+      <c r="G102" t="s">
+        <v>337</v>
+      </c>
+      <c r="H102" t="s">
+        <v>346</v>
+      </c>
+      <c r="I102">
+        <v>2.5420064608816517E-8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>244</v>
+      </c>
+      <c r="C103" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" t="s">
+        <v>338</v>
+      </c>
+      <c r="E103" t="s">
+        <v>255</v>
+      </c>
+      <c r="F103" t="s">
+        <v>234</v>
+      </c>
+      <c r="G103" t="s">
+        <v>339</v>
+      </c>
+      <c r="H103" t="s">
+        <v>350</v>
+      </c>
+      <c r="I103">
+        <v>5.6611621281885682E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>238</v>
+      </c>
+      <c r="C104" t="s">
+        <v>238</v>
+      </c>
+      <c r="D104" t="s">
+        <v>238</v>
+      </c>
+      <c r="E104" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" t="s">
+        <v>238</v>
+      </c>
+      <c r="G104" t="s">
+        <v>238</v>
+      </c>
+      <c r="H104" t="s">
+        <v>358</v>
+      </c>
+      <c r="I104">
+        <v>1.0426183640209641E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" t="s">
+        <v>238</v>
+      </c>
+      <c r="D105" t="s">
+        <v>238</v>
+      </c>
+      <c r="E105" t="s">
+        <v>238</v>
+      </c>
+      <c r="F105" t="s">
+        <v>238</v>
+      </c>
+      <c r="G105" t="s">
+        <v>238</v>
+      </c>
+      <c r="H105" t="s">
+        <v>359</v>
+      </c>
+      <c r="I105">
+        <v>4.7647149217909801E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" t="s">
+        <v>238</v>
+      </c>
+      <c r="C106" t="s">
+        <v>238</v>
+      </c>
+      <c r="D106" t="s">
+        <v>238</v>
+      </c>
+      <c r="E106" t="s">
+        <v>238</v>
+      </c>
+      <c r="F106" t="s">
+        <v>238</v>
+      </c>
+      <c r="G106" t="s">
+        <v>238</v>
+      </c>
+      <c r="H106" t="s">
+        <v>353</v>
+      </c>
+      <c r="I106">
+        <v>1.557409903091278E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C107" t="s">
+        <v>238</v>
+      </c>
+      <c r="D107" t="s">
+        <v>238</v>
+      </c>
+      <c r="E107" t="s">
+        <v>238</v>
+      </c>
+      <c r="F107" t="s">
+        <v>238</v>
+      </c>
+      <c r="G107" t="s">
+        <v>238</v>
+      </c>
+      <c r="H107" t="s">
+        <v>357</v>
+      </c>
+      <c r="I107">
+        <v>1.5938669564108388E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" t="s">
+        <v>238</v>
+      </c>
+      <c r="D108" t="s">
+        <v>238</v>
+      </c>
+      <c r="E108" t="s">
+        <v>238</v>
+      </c>
+      <c r="F108" t="s">
+        <v>238</v>
+      </c>
+      <c r="G108" t="s">
+        <v>238</v>
+      </c>
+      <c r="H108" t="s">
+        <v>355</v>
+      </c>
+      <c r="I108">
+        <v>2.097742692635296E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" t="s">
+        <v>252</v>
+      </c>
+      <c r="C109" t="s">
+        <v>240</v>
+      </c>
+      <c r="D109" t="s">
+        <v>340</v>
+      </c>
+      <c r="E109" t="s">
+        <v>259</v>
+      </c>
+      <c r="F109" t="s">
+        <v>253</v>
+      </c>
+      <c r="G109" t="s">
+        <v>254</v>
+      </c>
+      <c r="H109" t="s">
+        <v>356</v>
+      </c>
+      <c r="I109">
+        <v>1.6439751901547339E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" t="s">
+        <v>238</v>
+      </c>
+      <c r="D110" t="s">
+        <v>238</v>
+      </c>
+      <c r="E110" t="s">
+        <v>238</v>
+      </c>
+      <c r="F110" t="s">
+        <v>238</v>
+      </c>
+      <c r="G110" t="s">
+        <v>238</v>
+      </c>
+      <c r="H110" t="s">
+        <v>348</v>
+      </c>
+      <c r="I110">
+        <v>6.7279506561135349E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" t="s">
+        <v>238</v>
+      </c>
+      <c r="E111" t="s">
+        <v>238</v>
+      </c>
+      <c r="F111" t="s">
+        <v>238</v>
+      </c>
+      <c r="G111" t="s">
+        <v>238</v>
+      </c>
+      <c r="H111" t="s">
+        <v>346</v>
+      </c>
+      <c r="I111">
+        <v>5.2162375419051443E-7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D112" t="s">
+        <v>238</v>
+      </c>
+      <c r="E112" t="s">
+        <v>238</v>
+      </c>
+      <c r="F112" t="s">
+        <v>238</v>
+      </c>
+      <c r="G112" t="s">
+        <v>238</v>
+      </c>
+      <c r="H112" t="s">
+        <v>358</v>
+      </c>
+      <c r="I112">
+        <v>1.0325665157407182E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" t="s">
+        <v>238</v>
+      </c>
+      <c r="D113" t="s">
+        <v>238</v>
+      </c>
+      <c r="E113" t="s">
+        <v>238</v>
+      </c>
+      <c r="F113" t="s">
+        <v>238</v>
+      </c>
+      <c r="G113" t="s">
+        <v>238</v>
+      </c>
+      <c r="H113" t="s">
+        <v>360</v>
+      </c>
+      <c r="I113">
+        <v>5.2792492147157866E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" t="s">
+        <v>238</v>
+      </c>
+      <c r="D114" t="s">
+        <v>238</v>
+      </c>
+      <c r="E114" t="s">
+        <v>238</v>
+      </c>
+      <c r="F114" t="s">
+        <v>238</v>
+      </c>
+      <c r="G114" t="s">
+        <v>238</v>
+      </c>
+      <c r="H114" t="s">
+        <v>346</v>
+      </c>
+      <c r="I114">
+        <v>7.863181201051006E-6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115" t="s">
+        <v>238</v>
+      </c>
+      <c r="E115" t="s">
+        <v>238</v>
+      </c>
+      <c r="F115" t="s">
+        <v>238</v>
+      </c>
+      <c r="G115" t="s">
+        <v>238</v>
+      </c>
+      <c r="H115" t="s">
+        <v>359</v>
+      </c>
+      <c r="I115">
+        <v>4.4552506699699901E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" t="s">
+        <v>341</v>
+      </c>
+      <c r="E116" t="s">
+        <v>248</v>
+      </c>
+      <c r="F116" t="s">
+        <v>234</v>
+      </c>
+      <c r="G116" t="s">
+        <v>337</v>
+      </c>
+      <c r="H116" t="s">
+        <v>358</v>
+      </c>
+      <c r="I116">
+        <v>1.0438706519295127E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" t="s">
+        <v>238</v>
+      </c>
+      <c r="D117" t="s">
+        <v>238</v>
+      </c>
+      <c r="E117" t="s">
+        <v>238</v>
+      </c>
+      <c r="F117" t="s">
+        <v>238</v>
+      </c>
+      <c r="G117" t="s">
+        <v>238</v>
+      </c>
+      <c r="H117" t="s">
+        <v>357</v>
+      </c>
+      <c r="I117">
+        <v>8.8044245367679963E-5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" t="s">
+        <v>238</v>
+      </c>
+      <c r="D118" t="s">
+        <v>238</v>
+      </c>
+      <c r="E118" t="s">
+        <v>238</v>
+      </c>
+      <c r="F118" t="s">
+        <v>238</v>
+      </c>
+      <c r="G118" t="s">
+        <v>238</v>
+      </c>
+      <c r="H118" t="s">
+        <v>353</v>
+      </c>
+      <c r="I118">
+        <v>1.9784808595557646E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119" t="s">
+        <v>238</v>
+      </c>
+      <c r="E119" t="s">
+        <v>238</v>
+      </c>
+      <c r="F119" t="s">
+        <v>238</v>
+      </c>
+      <c r="G119" t="s">
+        <v>238</v>
+      </c>
+      <c r="H119" t="s">
+        <v>357</v>
+      </c>
+      <c r="I119">
+        <v>9.3971965958949966E-5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" t="s">
+        <v>238</v>
+      </c>
+      <c r="D120" t="s">
+        <v>238</v>
+      </c>
+      <c r="E120" t="s">
+        <v>238</v>
+      </c>
+      <c r="F120" t="s">
+        <v>238</v>
+      </c>
+      <c r="G120" t="s">
+        <v>238</v>
+      </c>
+      <c r="H120" t="s">
+        <v>351</v>
+      </c>
+      <c r="I120">
+        <v>3.4229741551761173E-5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" t="s">
+        <v>238</v>
+      </c>
+      <c r="D121" t="s">
+        <v>238</v>
+      </c>
+      <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
+        <v>238</v>
+      </c>
+      <c r="G121" t="s">
+        <v>238</v>
+      </c>
+      <c r="H121" t="s">
+        <v>346</v>
+      </c>
+      <c r="I121">
+        <v>4.7430920170343782E-6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" t="s">
+        <v>238</v>
+      </c>
+      <c r="D122" t="s">
+        <v>238</v>
+      </c>
+      <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
+        <v>238</v>
+      </c>
+      <c r="G122" t="s">
+        <v>238</v>
+      </c>
+      <c r="H122" t="s">
+        <v>351</v>
+      </c>
+      <c r="I122">
+        <v>3.4362411796884373E-5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" t="s">
+        <v>233</v>
+      </c>
+      <c r="C123" t="s">
+        <v>234</v>
+      </c>
+      <c r="D123" t="s">
+        <v>235</v>
+      </c>
+      <c r="E123" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" t="s">
+        <v>234</v>
+      </c>
+      <c r="G123" t="s">
+        <v>237</v>
+      </c>
+      <c r="H123" t="s">
+        <v>346</v>
+      </c>
+      <c r="I123">
+        <v>4.8980952627175611E-10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124" t="s">
+        <v>238</v>
+      </c>
+      <c r="C124" t="s">
+        <v>238</v>
+      </c>
+      <c r="D124" t="s">
+        <v>238</v>
+      </c>
+      <c r="E124" t="s">
+        <v>238</v>
+      </c>
+      <c r="F124" t="s">
+        <v>238</v>
+      </c>
+      <c r="G124" t="s">
+        <v>238</v>
+      </c>
+      <c r="H124" t="s">
+        <v>347</v>
+      </c>
+      <c r="I124">
+        <v>6.8889800078686392E-5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125" t="s">
+        <v>238</v>
+      </c>
+      <c r="C125" t="s">
+        <v>238</v>
+      </c>
+      <c r="D125" t="s">
+        <v>238</v>
+      </c>
+      <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
+        <v>238</v>
+      </c>
+      <c r="G125" t="s">
+        <v>238</v>
+      </c>
+      <c r="H125" t="s">
+        <v>348</v>
+      </c>
+      <c r="I125">
+        <v>6.2306608338180691E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" t="s">
+        <v>238</v>
+      </c>
+      <c r="D126" t="s">
+        <v>238</v>
+      </c>
+      <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
+        <v>238</v>
+      </c>
+      <c r="G126" t="s">
+        <v>238</v>
+      </c>
+      <c r="H126" t="s">
+        <v>349</v>
+      </c>
+      <c r="I126">
+        <v>1.0909520206972001E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" t="s">
+        <v>238</v>
+      </c>
+      <c r="D127" t="s">
+        <v>238</v>
+      </c>
+      <c r="E127" t="s">
+        <v>238</v>
+      </c>
+      <c r="F127" t="s">
+        <v>238</v>
+      </c>
+      <c r="G127" t="s">
+        <v>238</v>
+      </c>
+      <c r="H127" t="s">
+        <v>350</v>
+      </c>
+      <c r="I127">
+        <v>6.3493330958600547E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128" t="s">
+        <v>238</v>
+      </c>
+      <c r="D128" t="s">
+        <v>238</v>
+      </c>
+      <c r="E128" t="s">
+        <v>238</v>
+      </c>
+      <c r="F128" t="s">
+        <v>238</v>
+      </c>
+      <c r="G128" t="s">
+        <v>238</v>
+      </c>
+      <c r="H128" t="s">
+        <v>351</v>
+      </c>
+      <c r="I128">
+        <v>3.2883310477571648E-5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129" t="s">
+        <v>239</v>
+      </c>
+      <c r="C129" t="s">
+        <v>240</v>
+      </c>
+      <c r="D129" t="s">
+        <v>241</v>
+      </c>
+      <c r="E129" t="s">
+        <v>242</v>
+      </c>
+      <c r="F129" t="s">
+        <v>234</v>
+      </c>
+      <c r="G129" t="s">
+        <v>243</v>
+      </c>
+      <c r="H129" t="s">
+        <v>352</v>
+      </c>
+      <c r="I129">
+        <v>5.169561337059847E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" t="s">
+        <v>244</v>
+      </c>
+      <c r="C130" t="s">
+        <v>234</v>
+      </c>
+      <c r="D130" t="s">
+        <v>245</v>
+      </c>
+      <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
+        <v>238</v>
+      </c>
+      <c r="G130" t="s">
+        <v>238</v>
+      </c>
+      <c r="H130" t="s">
+        <v>346</v>
+      </c>
+      <c r="I130">
+        <v>1.7734964097071426E-5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" t="s">
+        <v>238</v>
+      </c>
+      <c r="C131" t="s">
+        <v>234</v>
+      </c>
+      <c r="D131" t="s">
+        <v>247</v>
+      </c>
+      <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
+        <v>234</v>
+      </c>
+      <c r="G131" t="s">
+        <v>237</v>
+      </c>
+      <c r="H131" t="s">
+        <v>347</v>
+      </c>
+      <c r="I131">
+        <v>1.0968560472002231E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132" t="s">
+        <v>238</v>
+      </c>
+      <c r="C132" t="s">
+        <v>234</v>
+      </c>
+      <c r="D132" t="s">
+        <v>247</v>
+      </c>
+      <c r="E132" t="s">
+        <v>248</v>
+      </c>
+      <c r="F132" t="s">
+        <v>234</v>
+      </c>
+      <c r="G132" t="s">
+        <v>237</v>
+      </c>
+      <c r="H132" t="s">
+        <v>353</v>
+      </c>
+      <c r="I132">
+        <v>2.627645698647374E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133" t="s">
+        <v>238</v>
+      </c>
+      <c r="C133" t="s">
+        <v>234</v>
+      </c>
+      <c r="D133" t="s">
+        <v>247</v>
+      </c>
+      <c r="E133" t="s">
+        <v>248</v>
+      </c>
+      <c r="F133" t="s">
+        <v>234</v>
+      </c>
+      <c r="G133" t="s">
+        <v>237</v>
+      </c>
+      <c r="H133" t="s">
+        <v>353</v>
+      </c>
+      <c r="I133">
+        <v>2.627645698647374E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134" t="s">
+        <v>238</v>
+      </c>
+      <c r="C134" t="s">
+        <v>238</v>
+      </c>
+      <c r="D134" t="s">
+        <v>238</v>
+      </c>
+      <c r="E134" t="s">
+        <v>238</v>
+      </c>
+      <c r="F134" t="s">
+        <v>238</v>
+      </c>
+      <c r="G134" t="s">
+        <v>238</v>
+      </c>
+      <c r="H134" t="s">
+        <v>351</v>
+      </c>
+      <c r="I134">
+        <v>3.2127048639273855E-5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" t="s">
+        <v>238</v>
+      </c>
+      <c r="D135" t="s">
+        <v>238</v>
+      </c>
+      <c r="E135" t="s">
+        <v>248</v>
+      </c>
+      <c r="F135" t="s">
+        <v>234</v>
+      </c>
+      <c r="G135" t="s">
+        <v>249</v>
+      </c>
+      <c r="H135" t="s">
+        <v>352</v>
+      </c>
+      <c r="I135">
+        <v>4.7739847728338614E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" t="s">
+        <v>238</v>
+      </c>
+      <c r="C136" t="s">
+        <v>238</v>
+      </c>
+      <c r="D136" t="s">
+        <v>238</v>
+      </c>
+      <c r="E136" t="s">
+        <v>238</v>
+      </c>
+      <c r="F136" t="s">
+        <v>238</v>
+      </c>
+      <c r="G136" t="s">
+        <v>238</v>
+      </c>
+      <c r="H136" t="s">
+        <v>354</v>
+      </c>
+      <c r="I136">
+        <v>0.17327190602914511</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137" t="s">
+        <v>238</v>
+      </c>
+      <c r="C137" t="s">
+        <v>234</v>
+      </c>
+      <c r="D137" t="s">
+        <v>247</v>
+      </c>
+      <c r="E137" t="s">
+        <v>248</v>
+      </c>
+      <c r="F137" t="s">
+        <v>234</v>
+      </c>
+      <c r="G137" t="s">
+        <v>237</v>
+      </c>
+      <c r="H137" t="s">
+        <v>348</v>
+      </c>
+      <c r="I137">
+        <v>6.3354991162511975E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138" t="s">
+        <v>238</v>
+      </c>
+      <c r="C138" t="s">
+        <v>238</v>
+      </c>
+      <c r="D138" t="s">
+        <v>238</v>
+      </c>
+      <c r="E138" t="s">
+        <v>238</v>
+      </c>
+      <c r="F138" t="s">
+        <v>238</v>
+      </c>
+      <c r="G138" t="s">
+        <v>238</v>
+      </c>
+      <c r="H138" t="s">
+        <v>346</v>
+      </c>
+      <c r="I138">
+        <v>6.616929226765933E-14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139" t="s">
+        <v>250</v>
+      </c>
+      <c r="C139" t="s">
+        <v>240</v>
+      </c>
+      <c r="D139" t="s">
+        <v>251</v>
+      </c>
+      <c r="E139" t="s">
+        <v>248</v>
+      </c>
+      <c r="F139" t="s">
+        <v>234</v>
+      </c>
+      <c r="G139" t="s">
+        <v>237</v>
+      </c>
+      <c r="H139" t="s">
+        <v>355</v>
+      </c>
+      <c r="I139">
+        <v>2.1134615542617308E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140" t="s">
+        <v>252</v>
+      </c>
+      <c r="C140" t="s">
+        <v>253</v>
+      </c>
+      <c r="D140" t="s">
+        <v>254</v>
+      </c>
+      <c r="E140" t="s">
+        <v>255</v>
+      </c>
+      <c r="F140" t="s">
+        <v>234</v>
+      </c>
+      <c r="G140" t="s">
+        <v>256</v>
+      </c>
+      <c r="H140" t="s">
+        <v>356</v>
+      </c>
+      <c r="I140">
+        <v>1.8428152107459961E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141" t="s">
+        <v>238</v>
+      </c>
+      <c r="C141" t="s">
+        <v>238</v>
+      </c>
+      <c r="D141" t="s">
+        <v>238</v>
+      </c>
+      <c r="E141" t="s">
+        <v>238</v>
+      </c>
+      <c r="F141" t="s">
+        <v>238</v>
+      </c>
+      <c r="G141" t="s">
+        <v>238</v>
+      </c>
+      <c r="H141" t="s">
+        <v>353</v>
+      </c>
+      <c r="I141">
+        <v>1.6508470467102576E-4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142" t="s">
+        <v>252</v>
+      </c>
+      <c r="C142" t="s">
+        <v>234</v>
+      </c>
+      <c r="D142" t="s">
+        <v>257</v>
+      </c>
+      <c r="E142" t="s">
+        <v>238</v>
+      </c>
+      <c r="F142" t="s">
+        <v>238</v>
+      </c>
+      <c r="G142" t="s">
+        <v>238</v>
+      </c>
+      <c r="H142" t="s">
+        <v>349</v>
+      </c>
+      <c r="I142">
+        <v>9.9601223890588564E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143" t="s">
+        <v>252</v>
+      </c>
+      <c r="C143" t="s">
+        <v>234</v>
+      </c>
+      <c r="D143" t="s">
+        <v>258</v>
+      </c>
+      <c r="E143" t="s">
+        <v>259</v>
+      </c>
+      <c r="F143" t="s">
+        <v>234</v>
+      </c>
+      <c r="G143" t="s">
+        <v>260</v>
+      </c>
+      <c r="H143" t="s">
+        <v>347</v>
+      </c>
+      <c r="I143">
+        <v>4.2982032276261961E-5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s">
+        <v>238</v>
+      </c>
+      <c r="C144" t="s">
+        <v>238</v>
+      </c>
+      <c r="D144" t="s">
+        <v>238</v>
+      </c>
+      <c r="E144" t="s">
+        <v>238</v>
+      </c>
+      <c r="F144" t="s">
+        <v>238</v>
+      </c>
+      <c r="G144" t="s">
+        <v>238</v>
+      </c>
+      <c r="H144" t="s">
+        <v>357</v>
+      </c>
+      <c r="I144">
+        <v>1.4541548712232455E-4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145" t="s">
+        <v>238</v>
+      </c>
+      <c r="C145" t="s">
+        <v>238</v>
+      </c>
+      <c r="D145" t="s">
+        <v>238</v>
+      </c>
+      <c r="E145" t="s">
+        <v>238</v>
+      </c>
+      <c r="F145" t="s">
+        <v>238</v>
+      </c>
+      <c r="G145" t="s">
+        <v>238</v>
+      </c>
+      <c r="H145" t="s">
+        <v>358</v>
+      </c>
+      <c r="I145">
+        <v>1.3978357041419476E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" t="s">
+        <v>238</v>
+      </c>
+      <c r="C146" t="s">
+        <v>238</v>
+      </c>
+      <c r="D146" t="s">
+        <v>238</v>
+      </c>
+      <c r="E146" t="s">
+        <v>238</v>
+      </c>
+      <c r="F146" t="s">
+        <v>238</v>
+      </c>
+      <c r="G146" t="s">
+        <v>238</v>
+      </c>
+      <c r="H146" t="s">
+        <v>347</v>
+      </c>
+      <c r="I146">
+        <v>4.1098581471832318E-5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" t="s">
+        <v>238</v>
+      </c>
+      <c r="C147" t="s">
+        <v>238</v>
+      </c>
+      <c r="D147" t="s">
+        <v>238</v>
+      </c>
+      <c r="E147" t="s">
+        <v>238</v>
+      </c>
+      <c r="F147" t="s">
+        <v>238</v>
+      </c>
+      <c r="G147" t="s">
+        <v>238</v>
+      </c>
+      <c r="H147" t="s">
+        <v>351</v>
+      </c>
+      <c r="I147">
+        <v>3.8337729115101027E-5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148" t="s">
+        <v>238</v>
+      </c>
+      <c r="C148" t="s">
+        <v>238</v>
+      </c>
+      <c r="D148" t="s">
+        <v>238</v>
+      </c>
+      <c r="E148" t="s">
+        <v>238</v>
+      </c>
+      <c r="F148" t="s">
+        <v>238</v>
+      </c>
+      <c r="G148" t="s">
+        <v>238</v>
+      </c>
+      <c r="H148" t="s">
+        <v>359</v>
+      </c>
+      <c r="I148">
+        <v>4.2302755495627897E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" t="s">
+        <v>252</v>
+      </c>
+      <c r="C149" t="s">
+        <v>253</v>
+      </c>
+      <c r="D149" t="s">
+        <v>261</v>
+      </c>
+      <c r="E149" t="s">
+        <v>248</v>
+      </c>
+      <c r="F149" t="s">
+        <v>234</v>
+      </c>
+      <c r="G149" t="s">
+        <v>237</v>
+      </c>
+      <c r="H149" t="s">
+        <v>355</v>
+      </c>
+      <c r="I149">
+        <v>2.7953761839861757E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" t="s">
+        <v>238</v>
+      </c>
+      <c r="C150" t="s">
+        <v>238</v>
+      </c>
+      <c r="D150" t="s">
+        <v>238</v>
+      </c>
+      <c r="E150" t="s">
+        <v>238</v>
+      </c>
+      <c r="F150" t="s">
+        <v>238</v>
+      </c>
+      <c r="G150" t="s">
+        <v>238</v>
+      </c>
+      <c r="H150" t="s">
+        <v>347</v>
+      </c>
+      <c r="I150">
+        <v>1.0968560472002231E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151" t="s">
+        <v>252</v>
+      </c>
+      <c r="C151" t="s">
+        <v>234</v>
+      </c>
+      <c r="D151" t="s">
+        <v>262</v>
+      </c>
+      <c r="E151" t="s">
+        <v>248</v>
+      </c>
+      <c r="F151" t="s">
+        <v>234</v>
+      </c>
+      <c r="G151" t="s">
+        <v>263</v>
+      </c>
+      <c r="H151" t="s">
+        <v>359</v>
+      </c>
+      <c r="I151">
+        <v>4.0257009124752274E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152" t="s">
+        <v>238</v>
+      </c>
+      <c r="C152" t="s">
+        <v>238</v>
+      </c>
+      <c r="D152" t="s">
+        <v>238</v>
+      </c>
+      <c r="E152" t="s">
+        <v>238</v>
+      </c>
+      <c r="F152" t="s">
+        <v>238</v>
+      </c>
+      <c r="G152" t="s">
+        <v>238</v>
+      </c>
+      <c r="H152" t="s">
+        <v>356</v>
+      </c>
+      <c r="I152">
+        <v>1.6439942799697183E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" t="s">
+        <v>238</v>
+      </c>
+      <c r="C153" t="s">
+        <v>238</v>
+      </c>
+      <c r="D153" t="s">
+        <v>238</v>
+      </c>
+      <c r="E153" t="s">
+        <v>246</v>
+      </c>
+      <c r="F153" t="s">
+        <v>238</v>
+      </c>
+      <c r="G153" t="s">
+        <v>238</v>
+      </c>
+      <c r="H153" t="s">
+        <v>349</v>
+      </c>
+      <c r="I153">
+        <v>1.4580923642087962E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" t="s">
+        <v>238</v>
+      </c>
+      <c r="C154" t="s">
+        <v>238</v>
+      </c>
+      <c r="D154" t="s">
+        <v>238</v>
+      </c>
+      <c r="E154" t="s">
+        <v>238</v>
+      </c>
+      <c r="F154" t="s">
+        <v>238</v>
+      </c>
+      <c r="G154" t="s">
+        <v>238</v>
+      </c>
+      <c r="H154" t="s">
+        <v>360</v>
+      </c>
+      <c r="I154">
+        <v>3.9919553916056838E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155" t="s">
+        <v>238</v>
+      </c>
+      <c r="C155" t="s">
+        <v>238</v>
+      </c>
+      <c r="D155" t="s">
+        <v>238</v>
+      </c>
+      <c r="E155" t="s">
+        <v>238</v>
+      </c>
+      <c r="F155" t="s">
+        <v>238</v>
+      </c>
+      <c r="G155" t="s">
+        <v>238</v>
+      </c>
+      <c r="H155" t="s">
+        <v>350</v>
+      </c>
+      <c r="I155">
+        <v>6.6452580976767983E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" t="s">
+        <v>264</v>
+      </c>
+      <c r="C156" t="s">
+        <v>238</v>
+      </c>
+      <c r="D156" t="s">
+        <v>238</v>
+      </c>
+      <c r="E156" t="s">
+        <v>238</v>
+      </c>
+      <c r="F156" t="s">
+        <v>238</v>
+      </c>
+      <c r="G156" t="s">
+        <v>238</v>
+      </c>
+      <c r="H156" t="s">
+        <v>358</v>
+      </c>
+      <c r="I156">
+        <v>1.0710324806181726E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157" t="s">
+        <v>238</v>
+      </c>
+      <c r="C157" t="s">
+        <v>238</v>
+      </c>
+      <c r="D157" t="s">
+        <v>238</v>
+      </c>
+      <c r="E157" t="s">
+        <v>238</v>
+      </c>
+      <c r="F157" t="s">
+        <v>238</v>
+      </c>
+      <c r="G157" t="s">
+        <v>238</v>
+      </c>
+      <c r="H157" t="s">
+        <v>346</v>
+      </c>
+      <c r="I157">
+        <v>4.9383687525939024E-6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158" t="s">
+        <v>252</v>
+      </c>
+      <c r="C158" t="s">
+        <v>234</v>
+      </c>
+      <c r="D158" t="s">
+        <v>265</v>
+      </c>
+      <c r="E158" t="s">
+        <v>259</v>
+      </c>
+      <c r="F158" t="s">
+        <v>234</v>
+      </c>
+      <c r="G158" t="s">
+        <v>266</v>
+      </c>
+      <c r="H158" t="s">
+        <v>347</v>
+      </c>
+      <c r="I158">
+        <v>1.0968560472002231E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159" t="s">
+        <v>252</v>
+      </c>
+      <c r="C159" t="s">
+        <v>234</v>
+      </c>
+      <c r="D159" t="s">
+        <v>265</v>
+      </c>
+      <c r="E159" t="s">
+        <v>259</v>
+      </c>
+      <c r="F159" t="s">
+        <v>234</v>
+      </c>
+      <c r="G159" t="s">
+        <v>266</v>
+      </c>
+      <c r="H159" t="s">
+        <v>347</v>
+      </c>
+      <c r="I159">
+        <v>1.0968560472002231E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" t="s">
+        <v>244</v>
+      </c>
+      <c r="C160" t="s">
+        <v>234</v>
+      </c>
+      <c r="D160" t="s">
+        <v>267</v>
+      </c>
+      <c r="E160" t="s">
+        <v>268</v>
+      </c>
+      <c r="F160" t="s">
+        <v>234</v>
+      </c>
+      <c r="G160" t="s">
+        <v>269</v>
+      </c>
+      <c r="H160" t="s">
+        <v>353</v>
+      </c>
+      <c r="I160">
+        <v>2.3437644496493437E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161" t="s">
+        <v>238</v>
+      </c>
+      <c r="C161" t="s">
+        <v>238</v>
+      </c>
+      <c r="D161" t="s">
+        <v>238</v>
+      </c>
+      <c r="E161" t="s">
+        <v>238</v>
+      </c>
+      <c r="F161" t="s">
+        <v>238</v>
+      </c>
+      <c r="G161" t="s">
+        <v>238</v>
+      </c>
+      <c r="H161" t="s">
+        <v>348</v>
+      </c>
+      <c r="I161">
+        <v>7.7793906726353335E-4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162" t="s">
+        <v>238</v>
+      </c>
+      <c r="C162" t="s">
+        <v>238</v>
+      </c>
+      <c r="D162" t="s">
+        <v>238</v>
+      </c>
+      <c r="E162" t="s">
+        <v>248</v>
+      </c>
+      <c r="F162" t="s">
+        <v>234</v>
+      </c>
+      <c r="G162" t="s">
+        <v>237</v>
+      </c>
+      <c r="H162" t="s">
+        <v>355</v>
+      </c>
+      <c r="I162">
+        <v>1.8104046150264619E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" t="s">
+        <v>238</v>
+      </c>
+      <c r="C163" t="s">
+        <v>238</v>
+      </c>
+      <c r="D163" t="s">
+        <v>238</v>
+      </c>
+      <c r="E163" t="s">
+        <v>238</v>
+      </c>
+      <c r="F163" t="s">
+        <v>238</v>
+      </c>
+      <c r="G163" t="s">
+        <v>238</v>
+      </c>
+      <c r="H163" t="s">
+        <v>353</v>
+      </c>
+      <c r="I163">
+        <v>1.9738560053639276E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" t="s">
+        <v>238</v>
+      </c>
+      <c r="C164" t="s">
+        <v>238</v>
+      </c>
+      <c r="D164" t="s">
+        <v>238</v>
+      </c>
+      <c r="E164" t="s">
+        <v>238</v>
+      </c>
+      <c r="F164" t="s">
+        <v>238</v>
+      </c>
+      <c r="G164" t="s">
+        <v>238</v>
+      </c>
+      <c r="H164" t="s">
+        <v>349</v>
+      </c>
+      <c r="I164">
+        <v>1.4679623885418547E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165" t="s">
+        <v>238</v>
+      </c>
+      <c r="C165" t="s">
+        <v>238</v>
+      </c>
+      <c r="D165" t="s">
+        <v>238</v>
+      </c>
+      <c r="E165" t="s">
+        <v>238</v>
+      </c>
+      <c r="F165" t="s">
+        <v>238</v>
+      </c>
+      <c r="G165" t="s">
+        <v>238</v>
+      </c>
+      <c r="H165" t="s">
+        <v>347</v>
+      </c>
+      <c r="I165">
+        <v>6.8345933598612518E-5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166" t="s">
+        <v>233</v>
+      </c>
+      <c r="C166" t="s">
+        <v>234</v>
+      </c>
+      <c r="D166" t="s">
+        <v>270</v>
+      </c>
+      <c r="E166" t="s">
+        <v>268</v>
+      </c>
+      <c r="F166" t="s">
+        <v>240</v>
+      </c>
+      <c r="G166" t="s">
+        <v>271</v>
+      </c>
+      <c r="H166" t="s">
+        <v>351</v>
+      </c>
+      <c r="I166">
+        <v>4.0696086429203859E-5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167" t="s">
+        <v>238</v>
+      </c>
+      <c r="C167" t="s">
+        <v>238</v>
+      </c>
+      <c r="D167" t="s">
+        <v>238</v>
+      </c>
+      <c r="E167" t="s">
+        <v>238</v>
+      </c>
+      <c r="F167" t="s">
+        <v>238</v>
+      </c>
+      <c r="G167" t="s">
+        <v>238</v>
+      </c>
+      <c r="H167" t="s">
+        <v>360</v>
+      </c>
+      <c r="I167">
+        <v>2.9216346781246738E-4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168" t="s">
+        <v>238</v>
+      </c>
+      <c r="C168" t="s">
+        <v>238</v>
+      </c>
+      <c r="D168" t="s">
+        <v>238</v>
+      </c>
+      <c r="E168" t="s">
+        <v>238</v>
+      </c>
+      <c r="F168" t="s">
+        <v>238</v>
+      </c>
+      <c r="G168" t="s">
+        <v>238</v>
+      </c>
+      <c r="H168" t="s">
+        <v>348</v>
+      </c>
+      <c r="I168">
+        <v>5.9032953857240944E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169" t="s">
+        <v>238</v>
+      </c>
+      <c r="C169" t="s">
+        <v>238</v>
+      </c>
+      <c r="D169" t="s">
+        <v>238</v>
+      </c>
+      <c r="E169" t="s">
+        <v>238</v>
+      </c>
+      <c r="F169" t="s">
+        <v>238</v>
+      </c>
+      <c r="G169" t="s">
+        <v>238</v>
+      </c>
+      <c r="H169" t="s">
+        <v>350</v>
+      </c>
+      <c r="I169">
+        <v>5.7512917792766904E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170" t="s">
+        <v>238</v>
+      </c>
+      <c r="C170" t="s">
+        <v>238</v>
+      </c>
+      <c r="D170" t="s">
+        <v>238</v>
+      </c>
+      <c r="E170" t="s">
+        <v>255</v>
+      </c>
+      <c r="F170" t="s">
+        <v>234</v>
+      </c>
+      <c r="G170" t="s">
+        <v>272</v>
+      </c>
+      <c r="H170" t="s">
+        <v>353</v>
+      </c>
+      <c r="I170">
+        <v>2.5554744342815017E-4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171" t="s">
+        <v>238</v>
+      </c>
+      <c r="C171" t="s">
+        <v>238</v>
+      </c>
+      <c r="D171" t="s">
+        <v>238</v>
+      </c>
+      <c r="E171" t="s">
+        <v>238</v>
+      </c>
+      <c r="F171" t="s">
+        <v>238</v>
+      </c>
+      <c r="G171" t="s">
+        <v>238</v>
+      </c>
+      <c r="H171" t="s">
+        <v>351</v>
+      </c>
+      <c r="I171">
+        <v>3.0289953987350238E-5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" t="s">
+        <v>238</v>
+      </c>
+      <c r="C172" t="s">
+        <v>238</v>
+      </c>
+      <c r="D172" t="s">
+        <v>238</v>
+      </c>
+      <c r="E172" t="s">
+        <v>246</v>
+      </c>
+      <c r="F172" t="s">
+        <v>238</v>
+      </c>
+      <c r="G172" t="s">
+        <v>238</v>
+      </c>
+      <c r="H172" t="s">
+        <v>347</v>
+      </c>
+      <c r="I172">
+        <v>1.0968560472002231E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" t="s">
+        <v>238</v>
+      </c>
+      <c r="C173" t="s">
+        <v>238</v>
+      </c>
+      <c r="D173" t="s">
+        <v>238</v>
+      </c>
+      <c r="E173" t="s">
+        <v>238</v>
+      </c>
+      <c r="F173" t="s">
+        <v>238</v>
+      </c>
+      <c r="G173" t="s">
+        <v>238</v>
+      </c>
+      <c r="H173" t="s">
+        <v>346</v>
+      </c>
+      <c r="I173">
+        <v>4.9247923517015124E-9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174" t="s">
+        <v>238</v>
+      </c>
+      <c r="C174" t="s">
+        <v>234</v>
+      </c>
+      <c r="D174" t="s">
+        <v>245</v>
+      </c>
+      <c r="E174" t="s">
+        <v>246</v>
+      </c>
+      <c r="F174" t="s">
+        <v>238</v>
+      </c>
+      <c r="G174" t="s">
+        <v>238</v>
+      </c>
+      <c r="H174" t="s">
+        <v>351</v>
+      </c>
+      <c r="I174">
+        <v>2.7043665944637141E-5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175" t="s">
+        <v>233</v>
+      </c>
+      <c r="C175" t="s">
+        <v>253</v>
+      </c>
+      <c r="D175" t="s">
+        <v>273</v>
+      </c>
+      <c r="E175" t="s">
+        <v>268</v>
+      </c>
+      <c r="F175" t="s">
+        <v>253</v>
+      </c>
+      <c r="G175" t="s">
+        <v>274</v>
+      </c>
+      <c r="H175" t="s">
+        <v>355</v>
+      </c>
+      <c r="I175">
+        <v>1.7904153918576471E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176" t="s">
+        <v>244</v>
+      </c>
+      <c r="C176" t="s">
+        <v>234</v>
+      </c>
+      <c r="D176" t="s">
+        <v>275</v>
+      </c>
+      <c r="E176" t="s">
+        <v>255</v>
+      </c>
+      <c r="F176" t="s">
+        <v>234</v>
+      </c>
+      <c r="G176" t="s">
+        <v>276</v>
+      </c>
+      <c r="H176" t="s">
+        <v>353</v>
+      </c>
+      <c r="I176">
+        <v>1.8993958630342256E-4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177" t="s">
+        <v>238</v>
+      </c>
+      <c r="C177" t="s">
+        <v>238</v>
+      </c>
+      <c r="D177" t="s">
+        <v>238</v>
+      </c>
+      <c r="E177" t="s">
+        <v>238</v>
+      </c>
+      <c r="F177" t="s">
+        <v>238</v>
+      </c>
+      <c r="G177" t="s">
+        <v>238</v>
+      </c>
+      <c r="H177" t="s">
+        <v>349</v>
+      </c>
+      <c r="I177">
+        <v>1.470332979568667E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178" t="s">
+        <v>238</v>
+      </c>
+      <c r="C178" t="s">
+        <v>238</v>
+      </c>
+      <c r="D178" t="s">
+        <v>238</v>
+      </c>
+      <c r="E178" t="s">
+        <v>238</v>
+      </c>
+      <c r="F178" t="s">
+        <v>238</v>
+      </c>
+      <c r="G178" t="s">
+        <v>238</v>
+      </c>
+      <c r="H178" t="s">
+        <v>351</v>
+      </c>
+      <c r="I178">
+        <v>3.3336386885296498E-5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179" t="s">
+        <v>238</v>
+      </c>
+      <c r="C179" t="s">
+        <v>238</v>
+      </c>
+      <c r="D179" t="s">
+        <v>238</v>
+      </c>
+      <c r="E179" t="s">
+        <v>238</v>
+      </c>
+      <c r="F179" t="s">
+        <v>238</v>
+      </c>
+      <c r="G179" t="s">
+        <v>238</v>
+      </c>
+      <c r="H179" t="s">
+        <v>351</v>
+      </c>
+      <c r="I179">
+        <v>3.0281581064439678E-5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180" t="s">
+        <v>238</v>
+      </c>
+      <c r="C180" t="s">
+        <v>238</v>
+      </c>
+      <c r="D180" t="s">
+        <v>238</v>
+      </c>
+      <c r="E180" t="s">
+        <v>238</v>
+      </c>
+      <c r="F180" t="s">
+        <v>238</v>
+      </c>
+      <c r="G180" t="s">
+        <v>238</v>
+      </c>
+      <c r="H180" t="s">
+        <v>356</v>
+      </c>
+      <c r="I180">
+        <v>2.4467497652660208E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181" t="s">
+        <v>238</v>
+      </c>
+      <c r="C181" t="s">
+        <v>238</v>
+      </c>
+      <c r="D181" t="s">
+        <v>238</v>
+      </c>
+      <c r="E181" t="s">
+        <v>259</v>
+      </c>
+      <c r="F181" t="s">
+        <v>234</v>
+      </c>
+      <c r="G181" t="s">
+        <v>277</v>
+      </c>
+      <c r="H181" t="s">
+        <v>361</v>
+      </c>
+      <c r="I181">
+        <v>3.3968686916063251E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" t="s">
+        <v>252</v>
+      </c>
+      <c r="C182" t="s">
+        <v>234</v>
+      </c>
+      <c r="D182" t="s">
+        <v>251</v>
+      </c>
+      <c r="E182" t="s">
+        <v>255</v>
+      </c>
+      <c r="F182" t="s">
+        <v>234</v>
+      </c>
+      <c r="G182" t="s">
+        <v>278</v>
+      </c>
+      <c r="H182" t="s">
+        <v>350</v>
+      </c>
+      <c r="I182">
+        <v>6.1581662002671012E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183" t="s">
+        <v>238</v>
+      </c>
+      <c r="C183" t="s">
+        <v>238</v>
+      </c>
+      <c r="D183" t="s">
+        <v>238</v>
+      </c>
+      <c r="E183" t="s">
+        <v>238</v>
+      </c>
+      <c r="F183" t="s">
+        <v>238</v>
+      </c>
+      <c r="G183" t="s">
+        <v>238</v>
+      </c>
+      <c r="H183" t="s">
+        <v>361</v>
+      </c>
+      <c r="I183">
+        <v>3.6117080428945902E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184" t="s">
+        <v>238</v>
+      </c>
+      <c r="C184" t="s">
+        <v>238</v>
+      </c>
+      <c r="D184" t="s">
+        <v>238</v>
+      </c>
+      <c r="E184" t="s">
+        <v>246</v>
+      </c>
+      <c r="F184" t="s">
+        <v>238</v>
+      </c>
+      <c r="G184" t="s">
+        <v>238</v>
+      </c>
+      <c r="H184" t="s">
+        <v>346</v>
+      </c>
+      <c r="I184">
+        <v>4.0091180190104936E-6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185" t="s">
+        <v>250</v>
+      </c>
+      <c r="C185" t="s">
+        <v>253</v>
+      </c>
+      <c r="D185" t="s">
+        <v>279</v>
+      </c>
+      <c r="E185" t="s">
+        <v>248</v>
+      </c>
+      <c r="F185" t="s">
+        <v>234</v>
+      </c>
+      <c r="G185" t="s">
+        <v>280</v>
+      </c>
+      <c r="H185" t="s">
+        <v>360</v>
+      </c>
+      <c r="I185">
+        <v>4.393052241370432E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186" t="s">
+        <v>238</v>
+      </c>
+      <c r="C186" t="s">
+        <v>238</v>
+      </c>
+      <c r="D186" t="s">
+        <v>238</v>
+      </c>
+      <c r="E186" t="s">
+        <v>238</v>
+      </c>
+      <c r="F186" t="s">
+        <v>238</v>
+      </c>
+      <c r="G186" t="s">
+        <v>238</v>
+      </c>
+      <c r="H186" t="s">
+        <v>362</v>
+      </c>
+      <c r="I186">
+        <v>7.2780277620496658E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187" t="s">
+        <v>244</v>
+      </c>
+      <c r="C187" t="s">
+        <v>234</v>
+      </c>
+      <c r="D187" t="s">
+        <v>281</v>
+      </c>
+      <c r="E187" t="s">
+        <v>248</v>
+      </c>
+      <c r="F187" t="s">
+        <v>234</v>
+      </c>
+      <c r="G187" t="s">
+        <v>237</v>
+      </c>
+      <c r="H187" t="s">
+        <v>348</v>
+      </c>
+      <c r="I187">
+        <v>6.7013354193579122E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188" t="s">
+        <v>244</v>
+      </c>
+      <c r="C188" t="s">
+        <v>234</v>
+      </c>
+      <c r="D188" t="s">
+        <v>281</v>
+      </c>
+      <c r="E188" t="s">
+        <v>248</v>
+      </c>
+      <c r="F188" t="s">
+        <v>234</v>
+      </c>
+      <c r="G188" t="s">
+        <v>237</v>
+      </c>
+      <c r="H188" t="s">
+        <v>348</v>
+      </c>
+      <c r="I188">
+        <v>6.7013354193579122E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189" t="s">
+        <v>238</v>
+      </c>
+      <c r="C189" t="s">
+        <v>238</v>
+      </c>
+      <c r="D189" t="s">
+        <v>238</v>
+      </c>
+      <c r="E189" t="s">
+        <v>238</v>
+      </c>
+      <c r="F189" t="s">
+        <v>238</v>
+      </c>
+      <c r="G189" t="s">
+        <v>238</v>
+      </c>
+      <c r="H189" t="s">
+        <v>350</v>
+      </c>
+      <c r="I189">
+        <v>5.9718818977727572E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190" t="s">
+        <v>238</v>
+      </c>
+      <c r="C190" t="s">
+        <v>238</v>
+      </c>
+      <c r="D190" t="s">
+        <v>238</v>
+      </c>
+      <c r="E190" t="s">
+        <v>238</v>
+      </c>
+      <c r="F190" t="s">
+        <v>238</v>
+      </c>
+      <c r="G190" t="s">
+        <v>238</v>
+      </c>
+      <c r="H190" t="s">
+        <v>353</v>
+      </c>
+      <c r="I190">
+        <v>1.6717656974674089E-4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191" t="s">
+        <v>250</v>
+      </c>
+      <c r="C191" t="s">
+        <v>234</v>
+      </c>
+      <c r="D191" t="s">
+        <v>282</v>
+      </c>
+      <c r="E191" t="s">
+        <v>259</v>
+      </c>
+      <c r="F191" t="s">
+        <v>234</v>
+      </c>
+      <c r="G191" t="s">
+        <v>283</v>
+      </c>
+      <c r="H191" t="s">
+        <v>357</v>
+      </c>
+      <c r="I191">
+        <v>9.9578535044053673E-5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192" t="s">
+        <v>238</v>
+      </c>
+      <c r="C192" t="s">
+        <v>238</v>
+      </c>
+      <c r="D192" t="s">
+        <v>238</v>
+      </c>
+      <c r="E192" t="s">
+        <v>238</v>
+      </c>
+      <c r="F192" t="s">
+        <v>238</v>
+      </c>
+      <c r="G192" t="s">
+        <v>238</v>
+      </c>
+      <c r="H192" t="s">
+        <v>351</v>
+      </c>
+      <c r="I192">
+        <v>3.1486641495992451E-5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193" t="s">
+        <v>238</v>
+      </c>
+      <c r="C193" t="s">
+        <v>238</v>
+      </c>
+      <c r="D193" t="s">
+        <v>238</v>
+      </c>
+      <c r="E193" t="s">
+        <v>238</v>
+      </c>
+      <c r="F193" t="s">
+        <v>238</v>
+      </c>
+      <c r="G193" t="s">
+        <v>238</v>
+      </c>
+      <c r="H193" t="s">
+        <v>346</v>
+      </c>
+      <c r="I193">
+        <v>3.3591362944562775E-6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194" t="s">
+        <v>238</v>
+      </c>
+      <c r="C194" t="s">
+        <v>253</v>
+      </c>
+      <c r="D194" t="s">
+        <v>284</v>
+      </c>
+      <c r="E194" t="s">
+        <v>248</v>
+      </c>
+      <c r="F194" t="s">
+        <v>234</v>
+      </c>
+      <c r="G194" t="s">
+        <v>237</v>
+      </c>
+      <c r="H194" t="s">
+        <v>357</v>
+      </c>
+      <c r="I194">
+        <v>1.2201134823464077E-4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195" t="s">
+        <v>233</v>
+      </c>
+      <c r="C195" t="s">
+        <v>234</v>
+      </c>
+      <c r="D195" t="s">
+        <v>285</v>
+      </c>
+      <c r="E195" t="s">
+        <v>286</v>
+      </c>
+      <c r="F195" t="s">
+        <v>234</v>
+      </c>
+      <c r="G195" t="s">
+        <v>237</v>
+      </c>
+      <c r="H195" t="s">
+        <v>350</v>
+      </c>
+      <c r="I195">
+        <v>9.0284483820516348E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196" t="s">
+        <v>238</v>
+      </c>
+      <c r="C196" t="s">
+        <v>238</v>
+      </c>
+      <c r="D196" t="s">
+        <v>238</v>
+      </c>
+      <c r="E196" t="s">
+        <v>248</v>
+      </c>
+      <c r="F196" t="s">
+        <v>234</v>
+      </c>
+      <c r="G196" t="s">
+        <v>247</v>
+      </c>
+      <c r="H196" t="s">
+        <v>349</v>
+      </c>
+      <c r="I196">
+        <v>1.6283368461021963E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" t="s">
+        <v>238</v>
+      </c>
+      <c r="C197" t="s">
+        <v>238</v>
+      </c>
+      <c r="D197" t="s">
+        <v>238</v>
+      </c>
+      <c r="E197" t="s">
+        <v>238</v>
+      </c>
+      <c r="F197" t="s">
+        <v>238</v>
+      </c>
+      <c r="G197" t="s">
+        <v>238</v>
+      </c>
+      <c r="H197" t="s">
+        <v>353</v>
+      </c>
+      <c r="I197">
+        <v>1.9497307684168685E-4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198" t="s">
+        <v>252</v>
+      </c>
+      <c r="C198" t="s">
+        <v>234</v>
+      </c>
+      <c r="D198" t="s">
+        <v>287</v>
+      </c>
+      <c r="E198" t="s">
+        <v>268</v>
+      </c>
+      <c r="F198" t="s">
+        <v>234</v>
+      </c>
+      <c r="G198" t="s">
+        <v>237</v>
+      </c>
+      <c r="H198" t="s">
+        <v>349</v>
+      </c>
+      <c r="I198">
+        <v>1.3107362254362043E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" t="s">
+        <v>238</v>
+      </c>
+      <c r="C199" t="s">
+        <v>238</v>
+      </c>
+      <c r="D199" t="s">
+        <v>238</v>
+      </c>
+      <c r="E199" t="s">
+        <v>288</v>
+      </c>
+      <c r="F199" t="s">
+        <v>234</v>
+      </c>
+      <c r="G199" t="s">
+        <v>289</v>
+      </c>
+      <c r="H199" t="s">
+        <v>358</v>
+      </c>
+      <c r="I199">
+        <v>1.0852388171582739E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200" t="s">
+        <v>238</v>
+      </c>
+      <c r="C200" t="s">
+        <v>234</v>
+      </c>
+      <c r="D200" t="s">
+        <v>247</v>
+      </c>
+      <c r="E200" t="s">
+        <v>248</v>
+      </c>
+      <c r="F200" t="s">
+        <v>234</v>
+      </c>
+      <c r="G200" t="s">
+        <v>237</v>
+      </c>
+      <c r="H200" t="s">
+        <v>357</v>
+      </c>
+      <c r="I200">
+        <v>1.4686824421206168E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201" t="s">
+        <v>238</v>
+      </c>
+      <c r="C201" t="s">
+        <v>238</v>
+      </c>
+      <c r="D201" t="s">
+        <v>238</v>
+      </c>
+      <c r="E201" t="s">
+        <v>248</v>
+      </c>
+      <c r="F201" t="s">
+        <v>234</v>
+      </c>
+      <c r="G201" t="s">
+        <v>237</v>
+      </c>
+      <c r="H201" t="s">
+        <v>351</v>
+      </c>
+      <c r="I201">
+        <v>2.4737405148189673E-5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202" t="s">
+        <v>238</v>
+      </c>
+      <c r="C202" t="s">
+        <v>238</v>
+      </c>
+      <c r="D202" t="s">
+        <v>238</v>
+      </c>
+      <c r="E202" t="s">
+        <v>238</v>
+      </c>
+      <c r="F202" t="s">
+        <v>238</v>
+      </c>
+      <c r="G202" t="s">
+        <v>238</v>
+      </c>
+      <c r="H202" t="s">
+        <v>360</v>
+      </c>
+      <c r="I202">
+        <v>3.6229093587702987E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203" t="s">
+        <v>238</v>
+      </c>
+      <c r="C203" t="s">
+        <v>238</v>
+      </c>
+      <c r="D203" t="s">
+        <v>238</v>
+      </c>
+      <c r="E203" t="s">
+        <v>238</v>
+      </c>
+      <c r="F203" t="s">
+        <v>238</v>
+      </c>
+      <c r="G203" t="s">
+        <v>238</v>
+      </c>
+      <c r="H203" t="s">
+        <v>349</v>
+      </c>
+      <c r="I203">
+        <v>1.2737261556383661E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204" t="s">
+        <v>238</v>
+      </c>
+      <c r="C204" t="s">
+        <v>238</v>
+      </c>
+      <c r="D204" t="s">
+        <v>238</v>
+      </c>
+      <c r="E204" t="s">
+        <v>268</v>
+      </c>
+      <c r="F204" t="s">
+        <v>234</v>
+      </c>
+      <c r="G204" t="s">
+        <v>290</v>
+      </c>
+      <c r="H204" t="s">
+        <v>349</v>
+      </c>
+      <c r="I204">
+        <v>1.0603823063813911E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" t="s">
+        <v>238</v>
+      </c>
+      <c r="C205" t="s">
+        <v>238</v>
+      </c>
+      <c r="D205" t="s">
+        <v>238</v>
+      </c>
+      <c r="E205" t="s">
+        <v>238</v>
+      </c>
+      <c r="F205" t="s">
+        <v>238</v>
+      </c>
+      <c r="G205" t="s">
+        <v>238</v>
+      </c>
+      <c r="H205" t="s">
+        <v>350</v>
+      </c>
+      <c r="I205">
+        <v>8.2968501936854233E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206" t="s">
+        <v>238</v>
+      </c>
+      <c r="C206" t="s">
+        <v>238</v>
+      </c>
+      <c r="D206" t="s">
+        <v>238</v>
+      </c>
+      <c r="E206" t="s">
+        <v>238</v>
+      </c>
+      <c r="F206" t="s">
+        <v>238</v>
+      </c>
+      <c r="G206" t="s">
+        <v>238</v>
+      </c>
+      <c r="H206" t="s">
+        <v>351</v>
+      </c>
+      <c r="I206">
+        <v>3.0015094973578904E-5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207" t="s">
+        <v>233</v>
+      </c>
+      <c r="C207" t="s">
+        <v>234</v>
+      </c>
+      <c r="D207" t="s">
+        <v>291</v>
+      </c>
+      <c r="E207" t="s">
+        <v>268</v>
+      </c>
+      <c r="F207" t="s">
+        <v>234</v>
+      </c>
+      <c r="G207" t="s">
+        <v>292</v>
+      </c>
+      <c r="H207" t="s">
+        <v>357</v>
+      </c>
+      <c r="I207">
+        <v>8.9878540535881513E-5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208" t="s">
+        <v>238</v>
+      </c>
+      <c r="C208" t="s">
+        <v>238</v>
+      </c>
+      <c r="D208" t="s">
+        <v>238</v>
+      </c>
+      <c r="E208" t="s">
+        <v>246</v>
+      </c>
+      <c r="F208" t="s">
+        <v>238</v>
+      </c>
+      <c r="G208" t="s">
+        <v>238</v>
+      </c>
+      <c r="H208" t="s">
+        <v>346</v>
+      </c>
+      <c r="I208">
+        <v>1.6185762845566387E-6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209" t="s">
+        <v>238</v>
+      </c>
+      <c r="C209" t="s">
+        <v>238</v>
+      </c>
+      <c r="D209" t="s">
+        <v>238</v>
+      </c>
+      <c r="E209" t="s">
+        <v>238</v>
+      </c>
+      <c r="F209" t="s">
+        <v>238</v>
+      </c>
+      <c r="G209" t="s">
+        <v>238</v>
+      </c>
+      <c r="H209" t="s">
+        <v>358</v>
+      </c>
+      <c r="I209">
+        <v>1.0385605472484016E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" t="s">
+        <v>238</v>
+      </c>
+      <c r="C210" t="s">
+        <v>238</v>
+      </c>
+      <c r="D210" t="s">
+        <v>238</v>
+      </c>
+      <c r="E210" t="s">
+        <v>238</v>
+      </c>
+      <c r="F210" t="s">
+        <v>238</v>
+      </c>
+      <c r="G210" t="s">
+        <v>238</v>
+      </c>
+      <c r="H210" t="s">
+        <v>346</v>
+      </c>
+      <c r="I210">
+        <v>8.9211214656659266E-6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211" t="s">
+        <v>238</v>
+      </c>
+      <c r="C211" t="s">
+        <v>238</v>
+      </c>
+      <c r="D211" t="s">
+        <v>238</v>
+      </c>
+      <c r="E211" t="s">
+        <v>238</v>
+      </c>
+      <c r="F211" t="s">
+        <v>238</v>
+      </c>
+      <c r="G211" t="s">
+        <v>238</v>
+      </c>
+      <c r="H211" t="s">
+        <v>346</v>
+      </c>
+      <c r="I211">
+        <v>7.4310329741811287E-6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" t="s">
+        <v>238</v>
+      </c>
+      <c r="C212" t="s">
+        <v>238</v>
+      </c>
+      <c r="D212" t="s">
+        <v>238</v>
+      </c>
+      <c r="E212" t="s">
+        <v>238</v>
+      </c>
+      <c r="F212" t="s">
+        <v>238</v>
+      </c>
+      <c r="G212" t="s">
+        <v>238</v>
+      </c>
+      <c r="H212" t="s">
+        <v>346</v>
+      </c>
+      <c r="I212">
+        <v>1.3657004711675746E-5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213" t="s">
+        <v>244</v>
+      </c>
+      <c r="C213" t="s">
+        <v>234</v>
+      </c>
+      <c r="D213" t="s">
+        <v>293</v>
+      </c>
+      <c r="E213" t="s">
+        <v>268</v>
+      </c>
+      <c r="F213" t="s">
+        <v>234</v>
+      </c>
+      <c r="G213" t="s">
+        <v>237</v>
+      </c>
+      <c r="H213" t="s">
+        <v>351</v>
+      </c>
+      <c r="I213">
+        <v>2.5484357655813916E-5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214" t="s">
+        <v>252</v>
+      </c>
+      <c r="C214" t="s">
+        <v>234</v>
+      </c>
+      <c r="D214" t="s">
+        <v>294</v>
+      </c>
+      <c r="E214" t="s">
+        <v>248</v>
+      </c>
+      <c r="F214" t="s">
+        <v>234</v>
+      </c>
+      <c r="G214" t="s">
+        <v>295</v>
+      </c>
+      <c r="H214" t="s">
+        <v>357</v>
+      </c>
+      <c r="I214">
+        <v>1.1570306697994415E-4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" t="s">
+        <v>233</v>
+      </c>
+      <c r="C215" t="s">
+        <v>234</v>
+      </c>
+      <c r="D215" t="s">
+        <v>296</v>
+      </c>
+      <c r="E215" t="s">
+        <v>268</v>
+      </c>
+      <c r="F215" t="s">
+        <v>234</v>
+      </c>
+      <c r="G215" t="s">
+        <v>297</v>
+      </c>
+      <c r="H215" t="s">
+        <v>351</v>
+      </c>
+      <c r="I215">
+        <v>3.8476626272432313E-5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216" t="s">
+        <v>238</v>
+      </c>
+      <c r="C216" t="s">
+        <v>238</v>
+      </c>
+      <c r="D216" t="s">
+        <v>238</v>
+      </c>
+      <c r="E216" t="s">
+        <v>259</v>
+      </c>
+      <c r="F216" t="s">
+        <v>234</v>
+      </c>
+      <c r="G216" t="s">
+        <v>298</v>
+      </c>
+      <c r="H216" t="s">
+        <v>356</v>
+      </c>
+      <c r="I216">
+        <v>1.9464082103318403E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217" t="s">
+        <v>244</v>
+      </c>
+      <c r="C217" t="s">
+        <v>238</v>
+      </c>
+      <c r="D217" t="s">
+        <v>238</v>
+      </c>
+      <c r="E217" t="s">
+        <v>238</v>
+      </c>
+      <c r="F217" t="s">
+        <v>238</v>
+      </c>
+      <c r="G217" t="s">
+        <v>238</v>
+      </c>
+      <c r="H217" t="s">
+        <v>353</v>
+      </c>
+      <c r="I217">
+        <v>2.0708363964672127E-4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>223</v>
+      </c>
+      <c r="B218" t="s">
+        <v>238</v>
+      </c>
+      <c r="C218" t="s">
+        <v>238</v>
+      </c>
+      <c r="D218" t="s">
+        <v>238</v>
+      </c>
+      <c r="E218" t="s">
+        <v>238</v>
+      </c>
+      <c r="F218" t="s">
+        <v>238</v>
+      </c>
+      <c r="G218" t="s">
+        <v>238</v>
+      </c>
+      <c r="H218" t="s">
+        <v>357</v>
+      </c>
+      <c r="I218">
+        <v>1.4741142503438276E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219" t="s">
+        <v>238</v>
+      </c>
+      <c r="C219" t="s">
+        <v>238</v>
+      </c>
+      <c r="D219" t="s">
+        <v>238</v>
+      </c>
+      <c r="E219" t="s">
+        <v>238</v>
+      </c>
+      <c r="F219" t="s">
+        <v>238</v>
+      </c>
+      <c r="G219" t="s">
+        <v>238</v>
+      </c>
+      <c r="H219" t="s">
+        <v>346</v>
+      </c>
+      <c r="I219">
+        <v>9.1413143243901374E-7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>225</v>
+      </c>
+      <c r="B220" t="s">
+        <v>238</v>
+      </c>
+      <c r="C220" t="s">
+        <v>238</v>
+      </c>
+      <c r="D220" t="s">
+        <v>238</v>
+      </c>
+      <c r="E220" t="s">
+        <v>238</v>
+      </c>
+      <c r="F220" t="s">
+        <v>238</v>
+      </c>
+      <c r="G220" t="s">
+        <v>238</v>
+      </c>
+      <c r="H220" t="s">
+        <v>346</v>
+      </c>
+      <c r="I220">
+        <v>9.4391379157343636E-9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221" t="s">
+        <v>238</v>
+      </c>
+      <c r="C221" t="s">
+        <v>238</v>
+      </c>
+      <c r="D221" t="s">
+        <v>238</v>
+      </c>
+      <c r="E221" t="s">
+        <v>238</v>
+      </c>
+      <c r="F221" t="s">
+        <v>238</v>
+      </c>
+      <c r="G221" t="s">
+        <v>238</v>
+      </c>
+      <c r="H221" t="s">
+        <v>358</v>
+      </c>
+      <c r="I221">
+        <v>9.493253874556129E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="A1:I101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>227</v>
       </c>
@@ -5292,7 +11726,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -5318,7 +11752,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -5347,7 +11781,7 @@
         <v>4.8980952627175611E-10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -5376,7 +11810,7 @@
         <v>6.8889800078686392E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -5405,7 +11839,7 @@
         <v>6.2306608338180691E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -5434,7 +11868,7 @@
         <v>1.0909520206972001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -5463,7 +11897,7 @@
         <v>6.3493330958600547E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -5492,7 +11926,7 @@
         <v>3.2883310477571648E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>134</v>
       </c>
@@ -5521,7 +11955,7 @@
         <v>5.169561337059847E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -5550,7 +11984,7 @@
         <v>1.7734964097071426E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -5579,7 +12013,7 @@
         <v>1.0968560472002231E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -5608,7 +12042,7 @@
         <v>2.627645698647374E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -5637,7 +12071,7 @@
         <v>2.627645698647374E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -5666,7 +12100,7 @@
         <v>3.2127048639273855E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -5695,7 +12129,7 @@
         <v>4.7739847728338614E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>141</v>
       </c>
@@ -5724,7 +12158,7 @@
         <v>0.17327190602914511</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -5753,7 +12187,7 @@
         <v>6.3354991162511975E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -5782,7 +12216,7 @@
         <v>6.616929226765933E-14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -5811,7 +12245,7 @@
         <v>2.1134615542617308E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>145</v>
       </c>
@@ -5840,7 +12274,7 @@
         <v>1.8428152107459961E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -5869,7 +12303,7 @@
         <v>1.6508470467102576E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -5898,7 +12332,7 @@
         <v>9.9601223890588564E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>148</v>
       </c>
@@ -5927,7 +12361,7 @@
         <v>4.2982032276261961E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>149</v>
       </c>
@@ -5956,7 +12390,7 @@
         <v>1.4541548712232455E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -5985,7 +12419,7 @@
         <v>1.3978357041419476E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>151</v>
       </c>
@@ -6014,7 +12448,7 @@
         <v>4.1098581471832318E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -6043,7 +12477,7 @@
         <v>3.8337729115101027E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>153</v>
       </c>
@@ -6072,7 +12506,7 @@
         <v>4.2302755495627897E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>154</v>
       </c>
@@ -6101,7 +12535,7 @@
         <v>2.7953761839861757E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -6130,7 +12564,7 @@
         <v>1.0968560472002231E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>156</v>
       </c>
@@ -6159,7 +12593,7 @@
         <v>4.0257009124752274E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>157</v>
       </c>
@@ -6188,7 +12622,7 @@
         <v>1.6439942799697183E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -6217,7 +12651,7 @@
         <v>1.4580923642087962E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>159</v>
       </c>
@@ -6246,7 +12680,7 @@
         <v>3.9919553916056838E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>160</v>
       </c>
@@ -6275,7 +12709,7 @@
         <v>6.6452580976767983E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -6304,7 +12738,7 @@
         <v>1.0710324806181726E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -6333,94 +12767,94 @@
         <v>4.9383687525939024E-6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" t="s">
         <v>265</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>259</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" t="s">
         <v>266</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" t="s">
         <v>347</v>
       </c>
       <c r="I38">
         <v>1.0968560472002231E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>252</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D39" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>259</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="F39" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" t="s">
         <v>347</v>
       </c>
       <c r="I39">
         <v>1.0968560472002231E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>165</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>268</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="F40" t="s">
+        <v>234</v>
+      </c>
+      <c r="G40" t="s">
         <v>269</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" t="s">
         <v>353</v>
       </c>
       <c r="I40">
         <v>2.3437644496493437E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -6449,7 +12883,7 @@
         <v>7.7793906726353335E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -6478,7 +12912,7 @@
         <v>1.8104046150264619E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>168</v>
       </c>
@@ -6507,7 +12941,7 @@
         <v>1.9738560053639276E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>169</v>
       </c>
@@ -6536,7 +12970,7 @@
         <v>1.4679623885418547E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>170</v>
       </c>
@@ -6565,7 +12999,7 @@
         <v>6.8345933598612518E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>171</v>
       </c>
@@ -6594,7 +13028,7 @@
         <v>4.0696086429203859E-5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>172</v>
       </c>
@@ -6623,7 +13057,7 @@
         <v>2.9216346781246738E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>173</v>
       </c>
@@ -6652,7 +13086,7 @@
         <v>5.9032953857240944E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>174</v>
       </c>
@@ -6681,7 +13115,7 @@
         <v>5.7512917792766904E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>175</v>
       </c>
@@ -6710,7 +13144,7 @@
         <v>2.5554744342815017E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>176</v>
       </c>
@@ -6739,7 +13173,7 @@
         <v>3.0289953987350238E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>177</v>
       </c>
@@ -6768,7 +13202,7 @@
         <v>1.0968560472002231E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>178</v>
       </c>
@@ -6797,7 +13231,7 @@
         <v>4.9247923517015124E-9</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -6826,7 +13260,7 @@
         <v>2.7043665944637141E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>180</v>
       </c>
@@ -6855,7 +13289,7 @@
         <v>1.7904153918576471E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -6884,7 +13318,7 @@
         <v>1.8993958630342256E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>182</v>
       </c>
@@ -6913,7 +13347,7 @@
         <v>1.470332979568667E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>183</v>
       </c>
@@ -6942,7 +13376,7 @@
         <v>3.3336386885296498E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>184</v>
       </c>
@@ -6971,7 +13405,7 @@
         <v>3.0281581064439678E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>185</v>
       </c>
@@ -7000,7 +13434,7 @@
         <v>2.4467497652660208E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>186</v>
       </c>
@@ -7029,7 +13463,7 @@
         <v>3.3968686916063251E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -7058,7 +13492,7 @@
         <v>6.1581662002671012E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -7087,7 +13521,7 @@
         <v>3.6117080428945902E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -7116,7 +13550,7 @@
         <v>4.0091180190104936E-6</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -7145,7 +13579,7 @@
         <v>4.393052241370432E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -7174,7 +13608,7 @@
         <v>7.2780277620496658E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>192</v>
       </c>
@@ -7203,7 +13637,7 @@
         <v>6.7013354193579122E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>193</v>
       </c>
@@ -7232,7 +13666,7 @@
         <v>6.7013354193579122E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>194</v>
       </c>
@@ -7261,7 +13695,7 @@
         <v>5.9718818977727572E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>195</v>
       </c>
@@ -7290,7 +13724,7 @@
         <v>1.6717656974674089E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>196</v>
       </c>
@@ -7319,7 +13753,7 @@
         <v>9.9578535044053673E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>197</v>
       </c>
@@ -7348,7 +13782,7 @@
         <v>3.1486641495992451E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>198</v>
       </c>
@@ -7377,7 +13811,7 @@
         <v>3.3591362944562775E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>199</v>
       </c>
@@ -7406,7 +13840,7 @@
         <v>1.2201134823464077E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>200</v>
       </c>
@@ -7435,7 +13869,7 @@
         <v>9.0284483820516348E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>201</v>
       </c>
@@ -7464,7 +13898,7 @@
         <v>1.6283368461021963E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>202</v>
       </c>
@@ -7493,7 +13927,7 @@
         <v>1.9497307684168685E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>203</v>
       </c>
@@ -7522,7 +13956,7 @@
         <v>1.3107362254362043E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>204</v>
       </c>
@@ -7551,7 +13985,7 @@
         <v>1.0852388171582739E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>205</v>
       </c>
@@ -7580,7 +14014,7 @@
         <v>1.4686824421206168E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>206</v>
       </c>
@@ -7609,7 +14043,7 @@
         <v>2.4737405148189673E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>207</v>
       </c>
@@ -7638,7 +14072,7 @@
         <v>3.6229093587702987E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>208</v>
       </c>
@@ -7667,7 +14101,7 @@
         <v>1.2737261556383661E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>209</v>
       </c>
@@ -7696,7 +14130,7 @@
         <v>1.0603823063813911E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>210</v>
       </c>
@@ -7725,7 +14159,7 @@
         <v>8.2968501936854233E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>211</v>
       </c>
@@ -7754,7 +14188,7 @@
         <v>3.0015094973578904E-5</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>212</v>
       </c>
@@ -7783,7 +14217,7 @@
         <v>8.9878540535881513E-5</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>213</v>
       </c>
@@ -7812,7 +14246,7 @@
         <v>1.6185762845566387E-6</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>214</v>
       </c>
@@ -7841,7 +14275,7 @@
         <v>1.0385605472484016E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>215</v>
       </c>
@@ -7870,7 +14304,7 @@
         <v>8.9211214656659266E-6</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>216</v>
       </c>
@@ -7899,7 +14333,7 @@
         <v>7.4310329741811287E-6</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>217</v>
       </c>
@@ -7928,7 +14362,7 @@
         <v>1.3657004711675746E-5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>218</v>
       </c>
@@ -7957,7 +14391,7 @@
         <v>2.5484357655813916E-5</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -7986,7 +14420,7 @@
         <v>1.1570306697994415E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>220</v>
       </c>
@@ -8015,7 +14449,7 @@
         <v>3.8476626272432313E-5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>221</v>
       </c>
@@ -8044,7 +14478,7 @@
         <v>1.9464082103318403E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>222</v>
       </c>
@@ -8073,7 +14507,7 @@
         <v>2.0708363964672127E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>223</v>
       </c>
@@ -8102,7 +14536,7 @@
         <v>1.4741142503438276E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>224</v>
       </c>
@@ -8131,7 +14565,7 @@
         <v>9.1413143243901374E-7</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>225</v>
       </c>
@@ -8160,7 +14594,7 @@
         <v>9.4391379157343636E-9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>226</v>
       </c>
